--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -531,22 +531,22 @@
     <row r="2" ht="27.75" customHeight="1" s="15">
       <c r="A2" s="19" t="inlineStr">
         <is>
-          <t>fmx1039h@mailcatch.com</t>
+          <t>glolzpaz@mailcatch.com</t>
         </is>
       </c>
       <c r="B2" s="14" t="inlineStr">
         <is>
-          <t>Xander</t>
+          <t>Liam</t>
         </is>
       </c>
       <c r="C2" s="14" t="inlineStr">
         <is>
-          <t>Samuel Systems LLC</t>
+          <t>Quincy Innovations Inc.</t>
         </is>
       </c>
       <c r="D2" s="14" t="inlineStr">
         <is>
-          <t>7475219009</t>
+          <t>9413255028</t>
         </is>
       </c>
       <c r="H2" s="19" t="inlineStr">
@@ -781,27 +781,27 @@
     <row r="8" ht="27.75" customHeight="1" s="15">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>Ivy</t>
         </is>
       </c>
       <c r="B8" s="14" t="inlineStr">
         <is>
-          <t>personalvchl9y7n@mailcatch.com</t>
+          <t>personaldadk5fky@mailcatch.com</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>90810</t>
+          <t>94547</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>6591426396</t>
+          <t>6977900074</t>
         </is>
       </c>
       <c r="E8" s="14" t="inlineStr">
         <is>
-          <t>empvchl9y7n@mailcatch.com</t>
+          <t>empdadk5fky@mailcatch.com</t>
         </is>
       </c>
       <c r="H8" s="24" t="inlineStr">
@@ -911,27 +911,27 @@
     <row r="11" ht="27.75" customHeight="1" s="15">
       <c r="A11" s="27" t="inlineStr">
         <is>
-          <t>Tessa</t>
+          <t>Winston</t>
         </is>
       </c>
       <c r="B11" s="27" t="inlineStr">
         <is>
-          <t>personaljhio7phs@mailcatch.com</t>
+          <t>personalg5g9lcdn@mailcatch.com</t>
         </is>
       </c>
       <c r="C11" s="27" t="inlineStr">
         <is>
-          <t>93643</t>
+          <t>90759</t>
         </is>
       </c>
       <c r="D11" s="27" t="inlineStr">
         <is>
-          <t>8510533589</t>
+          <t>8193899379</t>
         </is>
       </c>
       <c r="E11" s="27" t="inlineStr">
         <is>
-          <t>empjhio7phs@mailcatch.com</t>
+          <t>empg5g9lcdn@mailcatch.com</t>
         </is>
       </c>
       <c r="J11" s="26" t="n"/>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -469,7 +469,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="22.55078125" defaultRowHeight="27.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="22.55078125" defaultRowHeight="27.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="28" customWidth="1" style="14" min="1" max="2"/>
     <col width="32.55" customWidth="1" style="14" min="3" max="3"/>
@@ -531,22 +531,22 @@
     <row r="2" ht="27.75" customHeight="1" s="15">
       <c r="A2" s="19" t="inlineStr">
         <is>
-          <t>fmx1039h@mailcatch.com</t>
+          <t>umsnq0c1@mailcatch.com</t>
         </is>
       </c>
       <c r="B2" s="14" t="inlineStr">
         <is>
-          <t>Xander</t>
+          <t>Finn</t>
         </is>
       </c>
       <c r="C2" s="14" t="inlineStr">
         <is>
-          <t>Samuel Systems LLC</t>
+          <t>Ximena Services Private Limited</t>
         </is>
       </c>
       <c r="D2" s="14" t="inlineStr">
         <is>
-          <t>7475219009</t>
+          <t>8912454607</t>
         </is>
       </c>
       <c r="H2" s="19" t="inlineStr">
@@ -728,22 +728,22 @@
     <row r="6" ht="27.75" customHeight="1" s="15">
       <c r="A6" s="20" t="inlineStr">
         <is>
-          <t>Hudson</t>
+          <t>Yara</t>
         </is>
       </c>
       <c r="B6" s="20" t="inlineStr">
         <is>
-          <t>twt0mco9@mailcatch.com</t>
+          <t>rava7iwp@mailcatch.com</t>
         </is>
       </c>
       <c r="C6" s="14" t="inlineStr">
         <is>
-          <t>Dylan</t>
+          <t>Zara</t>
         </is>
       </c>
       <c r="D6" s="14" t="inlineStr">
         <is>
-          <t>tp5me2od@mailcatch.com</t>
+          <t>oicc1h66@mailcatch.com</t>
         </is>
       </c>
       <c r="E6" s="20" t="n"/>
@@ -781,27 +781,27 @@
     <row r="8" ht="27.75" customHeight="1" s="15">
       <c r="A8" s="14" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>Violet</t>
         </is>
       </c>
       <c r="B8" s="14" t="inlineStr">
         <is>
-          <t>personalvchl9y7n@mailcatch.com</t>
+          <t>personaltord66a5@mailcatch.com</t>
         </is>
       </c>
       <c r="C8" s="14" t="inlineStr">
         <is>
-          <t>90810</t>
+          <t>90358</t>
         </is>
       </c>
       <c r="D8" s="14" t="inlineStr">
         <is>
-          <t>6591426396</t>
+          <t>7670012784</t>
         </is>
       </c>
       <c r="E8" s="14" t="inlineStr">
         <is>
-          <t>empvchl9y7n@mailcatch.com</t>
+          <t>emptord66a5@mailcatch.com</t>
         </is>
       </c>
       <c r="H8" s="24" t="inlineStr">
@@ -874,17 +874,17 @@
       </c>
       <c r="C10" s="14" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Milo</t>
         </is>
       </c>
       <c r="D10" s="14" t="inlineStr">
         <is>
-          <t>6745084846</t>
+          <t>9238435834</t>
         </is>
       </c>
       <c r="E10" s="14" t="inlineStr">
         <is>
-          <t>vy0ntn620@mailcatch.com</t>
+          <t>wpypbiz20@mailcatch.com</t>
         </is>
       </c>
       <c r="H10" s="19" t="inlineStr">
@@ -911,27 +911,27 @@
     <row r="11" ht="27.75" customHeight="1" s="15">
       <c r="A11" s="27" t="inlineStr">
         <is>
-          <t>Tessa</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="B11" s="27" t="inlineStr">
         <is>
-          <t>personaljhio7phs@mailcatch.com</t>
+          <t>personalk4hdyf74@mailcatch.com</t>
         </is>
       </c>
       <c r="C11" s="27" t="inlineStr">
         <is>
-          <t>93643</t>
+          <t>93925</t>
         </is>
       </c>
       <c r="D11" s="27" t="inlineStr">
         <is>
-          <t>8510533589</t>
+          <t>9270203967</t>
         </is>
       </c>
       <c r="E11" s="27" t="inlineStr">
         <is>
-          <t>empjhio7phs@mailcatch.com</t>
+          <t>empk4hdyf74@mailcatch.com</t>
         </is>
       </c>
       <c r="J11" s="26" t="n"/>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -531,22 +531,22 @@
     <row r="2" ht="27.75" customHeight="1" s="15">
       <c r="A2" s="19" t="inlineStr">
         <is>
-          <t>glolzpaz@mailcatch.com</t>
+          <t>w394wfvu@mailcatch.com</t>
         </is>
       </c>
       <c r="B2" s="14" t="inlineStr">
         <is>
-          <t>Liam</t>
+          <t>Gavin</t>
         </is>
       </c>
       <c r="C2" s="14" t="inlineStr">
         <is>
-          <t>Quincy Innovations Inc.</t>
+          <t>Luna Services Group</t>
         </is>
       </c>
       <c r="D2" s="14" t="inlineStr">
         <is>
-          <t>9413255028</t>
+          <t>9464629828</t>
         </is>
       </c>
       <c r="H2" s="19" t="inlineStr">

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -531,22 +531,22 @@
     <row r="2" ht="27.75" customHeight="1" s="15">
       <c r="A2" s="19" t="inlineStr">
         <is>
-          <t>glolzpaz@mailcatch.com</t>
+          <t>v99ie0dc@mailcatch.com</t>
         </is>
       </c>
       <c r="B2" s="14" t="inlineStr">
         <is>
-          <t>Liam</t>
+          <t>Sebastian</t>
         </is>
       </c>
       <c r="C2" s="14" t="inlineStr">
         <is>
-          <t>Quincy Innovations Inc.</t>
+          <t>Lucas Solutions Enterprises</t>
         </is>
       </c>
       <c r="D2" s="14" t="inlineStr">
         <is>
-          <t>9413255028</t>
+          <t>9375708975</t>
         </is>
       </c>
       <c r="H2" s="19" t="inlineStr">

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -531,22 +531,22 @@
     <row r="2" ht="27.75" customHeight="1" s="15">
       <c r="A2" s="19" t="inlineStr">
         <is>
-          <t>glolzpaz@mailcatch.com</t>
+          <t>rttyoadc@mailcatch.com</t>
         </is>
       </c>
       <c r="B2" s="14" t="inlineStr">
         <is>
-          <t>Liam</t>
+          <t>Zane</t>
         </is>
       </c>
       <c r="C2" s="14" t="inlineStr">
         <is>
-          <t>Quincy Innovations Inc.</t>
+          <t>Henry Services Group</t>
         </is>
       </c>
       <c r="D2" s="14" t="inlineStr">
         <is>
-          <t>9413255028</t>
+          <t>9006269080</t>
         </is>
       </c>
       <c r="H2" s="19" t="inlineStr">

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -531,22 +531,22 @@
     <row r="2" ht="27.75" customHeight="1" s="15">
       <c r="A2" s="19" t="inlineStr">
         <is>
-          <t>v99ie0dc@mailcatch.com</t>
+          <t>wrw27522@mailcatch.com</t>
         </is>
       </c>
       <c r="B2" s="14" t="inlineStr">
         <is>
-          <t>Sebastian</t>
+          <t>Jack</t>
         </is>
       </c>
       <c r="C2" s="14" t="inlineStr">
         <is>
-          <t>Lucas Solutions Enterprises</t>
+          <t>Ava Services Group</t>
         </is>
       </c>
       <c r="D2" s="14" t="inlineStr">
         <is>
-          <t>9375708975</t>
+          <t>9618725360</t>
         </is>
       </c>
       <c r="H2" s="19" t="inlineStr">

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -999,7 +999,7 @@
     <row r="16" ht="27.75" customHeight="1" s="15">
       <c r="A16" s="14" t="inlineStr">
         <is>
-          <t>software Bryan</t>
+          <t>software Owen</t>
         </is>
       </c>
       <c r="B16" s="14" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="C16" s="14" t="inlineStr">
         <is>
-          <t>MarketingBryan</t>
+          <t>MarketingOwen</t>
         </is>
       </c>
     </row>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -999,7 +999,7 @@
     <row r="16" ht="27.75" customHeight="1" s="15">
       <c r="A16" s="14" t="inlineStr">
         <is>
-          <t>software Owen</t>
+          <t>software Elena</t>
         </is>
       </c>
       <c r="B16" s="14" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="C16" s="14" t="inlineStr">
         <is>
-          <t>MarketingOwen</t>
+          <t>MarketingElena</t>
         </is>
       </c>
     </row>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -130,7 +130,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -174,6 +174,9 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -211,6 +214,9 @@
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -465,563 +471,639 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="22.55078125" defaultRowHeight="27.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="28" customWidth="1" style="14" min="1" max="2"/>
-    <col width="32.55" customWidth="1" style="14" min="3" max="3"/>
-    <col width="17" customWidth="1" style="14" min="4" max="4"/>
-    <col width="25.45" customWidth="1" style="14" min="5" max="5"/>
-    <col width="9" customWidth="1" style="14" min="6" max="7"/>
-    <col width="34.27" customWidth="1" style="14" min="8" max="8"/>
-    <col width="23.91" customWidth="1" style="14" min="9" max="9"/>
-    <col width="12.55" customWidth="1" style="14" min="10" max="10"/>
-    <col width="28.82" customWidth="1" style="14" min="11" max="11"/>
-    <col width="20.55" customWidth="1" style="14" min="12" max="12"/>
-    <col width="12.45" customWidth="1" style="14" min="13" max="13"/>
-    <col width="9" customWidth="1" style="14" min="14" max="32"/>
-    <col width="22.55" customWidth="1" style="14" min="33" max="16384"/>
+    <col width="28" customWidth="1" style="15" min="1" max="2"/>
+    <col width="32.55" customWidth="1" style="15" min="3" max="3"/>
+    <col width="17" customWidth="1" style="15" min="4" max="4"/>
+    <col width="25.45" customWidth="1" style="15" min="5" max="5"/>
+    <col width="9" customWidth="1" style="15" min="6" max="7"/>
+    <col width="34.27" customWidth="1" style="15" min="8" max="8"/>
+    <col width="23.91" customWidth="1" style="15" min="9" max="9"/>
+    <col width="12.55" customWidth="1" style="15" min="10" max="10"/>
+    <col width="28.82" customWidth="1" style="15" min="11" max="11"/>
+    <col width="20.55" customWidth="1" style="15" min="12" max="12"/>
+    <col width="12.45" customWidth="1" style="15" min="13" max="13"/>
+    <col width="9" customWidth="1" style="15" min="14" max="32"/>
+    <col width="22.55" customWidth="1" style="15" min="33" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1" s="15">
-      <c r="A1" s="16" t="inlineStr">
+    <row r="1" ht="27.75" customHeight="1" s="16">
+      <c r="A1" s="17" t="inlineStr">
         <is>
           <t>Company Sign Up Email</t>
         </is>
       </c>
-      <c r="B1" s="16" t="inlineStr">
+      <c r="B1" s="17" t="inlineStr">
         <is>
           <t>contactname</t>
         </is>
       </c>
-      <c r="C1" s="16" t="inlineStr">
+      <c r="C1" s="17" t="inlineStr">
         <is>
           <t>company name</t>
         </is>
       </c>
-      <c r="D1" s="16" t="inlineStr">
+      <c r="D1" s="17" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="H1" s="17" t="inlineStr">
+      <c r="H1" s="18" t="inlineStr">
         <is>
           <t>Listed Companies Name</t>
         </is>
       </c>
-      <c r="I1" s="17" t="inlineStr">
+      <c r="I1" s="18" t="inlineStr">
         <is>
           <t>Listed Companies Email</t>
         </is>
       </c>
-      <c r="J1" s="18" t="inlineStr">
+      <c r="J1" s="19" t="inlineStr">
         <is>
           <t>Emp Name</t>
         </is>
       </c>
-      <c r="K1" s="18" t="inlineStr">
+      <c r="K1" s="19" t="inlineStr">
         <is>
           <t>Emp Email</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="27.75" customHeight="1" s="15">
-      <c r="A2" s="19" t="inlineStr">
+    <row r="2" ht="27.75" customHeight="1" s="16">
+      <c r="A2" s="20" t="inlineStr">
         <is>
           <t>glolzpaz@mailcatch.com</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B2" s="15" t="inlineStr">
         <is>
           <t>Liam</t>
         </is>
       </c>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="C2" s="15" t="inlineStr">
         <is>
           <t>Quincy Innovations Inc.</t>
         </is>
       </c>
-      <c r="D2" s="14" t="inlineStr">
+      <c r="D2" s="15" t="inlineStr">
         <is>
           <t>9413255028</t>
         </is>
       </c>
-      <c r="H2" s="19" t="inlineStr">
+      <c r="H2" s="20" t="inlineStr">
         <is>
           <t>TestaaoIV Innovations Inc.</t>
         </is>
       </c>
-      <c r="I2" s="19" t="inlineStr">
+      <c r="I2" s="20" t="inlineStr">
         <is>
           <t>donu1ql@mailcatch.com</t>
         </is>
       </c>
-      <c r="J2" s="20" t="inlineStr">
+      <c r="J2" s="21" t="inlineStr">
         <is>
           <t>Krishna</t>
         </is>
       </c>
-      <c r="K2" s="20" t="inlineStr">
+      <c r="K2" s="21" t="inlineStr">
         <is>
           <t>employeeone@yopmail.com</t>
         </is>
       </c>
-      <c r="L2" s="14" t="inlineStr">
+      <c r="L2" s="15" t="inlineStr">
         <is>
           <t>SEND Conection OF(display connection)</t>
         </is>
       </c>
-      <c r="M2" s="21" t="inlineStr">
+      <c r="M2" s="22" t="inlineStr">
         <is>
           <t>manufacture</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="27.75" customHeight="1" s="15">
-      <c r="A3" s="16" t="inlineStr">
+    <row r="3" ht="27.75" customHeight="1" s="16">
+      <c r="A3" s="17" t="inlineStr">
         <is>
           <t>Individual Sign Up Email</t>
         </is>
       </c>
-      <c r="B3" s="16" t="inlineStr">
+      <c r="B3" s="17" t="inlineStr">
         <is>
           <t>Fullname</t>
         </is>
       </c>
-      <c r="C3" s="16" t="inlineStr">
+      <c r="C3" s="17" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
       </c>
-      <c r="D3" s="16" t="inlineStr">
+      <c r="D3" s="17" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="H3" s="19" t="inlineStr">
+      <c r="H3" s="20" t="inlineStr">
         <is>
           <t>TestkVqcq Services LLC</t>
         </is>
       </c>
-      <c r="I3" s="19" t="inlineStr">
+      <c r="I3" s="20" t="inlineStr">
         <is>
           <t>qaq1rj2@mailcatch.com</t>
         </is>
       </c>
-      <c r="J3" s="20" t="inlineStr">
+      <c r="J3" s="21" t="inlineStr">
         <is>
           <t>Anand</t>
         </is>
       </c>
-      <c r="K3" s="20" t="inlineStr">
+      <c r="K3" s="21" t="inlineStr">
         <is>
           <t>employeetwo@yopmail.com</t>
         </is>
       </c>
-      <c r="L3" s="22" t="inlineStr">
+      <c r="L3" s="23" t="inlineStr">
         <is>
           <t>Connection(display OF)</t>
         </is>
       </c>
-      <c r="M3" s="21" t="inlineStr">
+      <c r="M3" s="22" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="27.75" customHeight="1" s="15">
-      <c r="A4" s="14" t="inlineStr">
+    <row r="4" ht="27.75" customHeight="1" s="16">
+      <c r="A4" s="15" t="inlineStr">
         <is>
           <t>q6484lk@yopmail.com</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>TestGaHLI</t>
         </is>
       </c>
-      <c r="C4" s="14" t="inlineStr">
+      <c r="C4" s="15" t="inlineStr">
         <is>
           <t>Inlynk@123</t>
         </is>
       </c>
-      <c r="D4" s="14" t="inlineStr">
+      <c r="D4" s="15" t="inlineStr">
         <is>
           <t>7405505882</t>
         </is>
       </c>
-      <c r="H4" s="19" t="inlineStr">
+      <c r="H4" s="20" t="inlineStr">
         <is>
           <t>TestWQZPV Solutions Enterprises</t>
         </is>
       </c>
-      <c r="I4" s="19" t="inlineStr">
+      <c r="I4" s="20" t="inlineStr">
         <is>
           <t>bjqvi6d@mailcatch.com</t>
         </is>
       </c>
-      <c r="J4" s="20" t="inlineStr">
+      <c r="J4" s="21" t="inlineStr">
         <is>
           <t>Badhri</t>
         </is>
       </c>
-      <c r="K4" s="20" t="inlineStr">
+      <c r="K4" s="21" t="inlineStr">
         <is>
           <t>employeethree@yopmail.com</t>
         </is>
       </c>
-      <c r="M4" s="21" t="inlineStr">
+      <c r="M4" s="22" t="inlineStr">
         <is>
           <t>share holder</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="27.75" customHeight="1" s="15">
-      <c r="A5" s="16" t="inlineStr">
+    <row r="5" ht="27.75" customHeight="1" s="16">
+      <c r="A5" s="17" t="inlineStr">
         <is>
           <t>Emp Creation From SignUp WD
 Fullname (normal Emp)</t>
         </is>
       </c>
-      <c r="B5" s="16" t="inlineStr">
+      <c r="B5" s="17" t="inlineStr">
         <is>
           <t>Emp email id</t>
         </is>
       </c>
-      <c r="C5" s="16" t="inlineStr">
+      <c r="C5" s="17" t="inlineStr">
         <is>
           <t>Emp Creation From SignUp WD
 Fullname (ADMIN EMP)</t>
         </is>
       </c>
-      <c r="D5" s="16" t="inlineStr">
+      <c r="D5" s="17" t="inlineStr">
         <is>
           <t>Emp email id</t>
         </is>
       </c>
-      <c r="E5" s="16" t="n"/>
-      <c r="H5" s="19" t="inlineStr">
+      <c r="E5" s="17" t="n"/>
+      <c r="H5" s="20" t="inlineStr">
         <is>
           <t>TestEkOYP Systems Group</t>
         </is>
       </c>
-      <c r="I5" s="19" t="inlineStr">
+      <c r="I5" s="20" t="inlineStr">
         <is>
           <t>l38a8ij@mailcatch.com</t>
         </is>
       </c>
-      <c r="J5" s="20" t="inlineStr">
+      <c r="J5" s="21" t="inlineStr">
         <is>
           <t>Hamesh</t>
         </is>
       </c>
-      <c r="K5" s="20" t="inlineStr">
+      <c r="K5" s="21" t="inlineStr">
         <is>
           <t>employeefour@yopmail.com</t>
         </is>
       </c>
-      <c r="M5" s="21" t="n"/>
-    </row>
-    <row r="6" ht="27.75" customHeight="1" s="15">
-      <c r="A6" s="20" t="inlineStr">
+      <c r="M5" s="22" t="n"/>
+    </row>
+    <row r="6" ht="27.75" customHeight="1" s="16">
+      <c r="A6" s="21" t="inlineStr">
         <is>
           <t>Hudson</t>
         </is>
       </c>
-      <c r="B6" s="20" t="inlineStr">
+      <c r="B6" s="21" t="inlineStr">
         <is>
           <t>twt0mco9@mailcatch.com</t>
         </is>
       </c>
-      <c r="C6" s="14" t="inlineStr">
+      <c r="C6" s="15" t="inlineStr">
         <is>
           <t>Dylan</t>
         </is>
       </c>
-      <c r="D6" s="14" t="inlineStr">
+      <c r="D6" s="15" t="inlineStr">
         <is>
           <t>tp5me2od@mailcatch.com</t>
         </is>
       </c>
-      <c r="E6" s="20" t="n"/>
-    </row>
-    <row r="7" ht="27.75" customHeight="1" s="15">
-      <c r="A7" s="16" t="inlineStr">
+      <c r="E6" s="21" t="n"/>
+    </row>
+    <row r="7" ht="27.75" customHeight="1" s="16">
+      <c r="A7" s="17" t="inlineStr">
         <is>
           <t>Added Employees from inside the company - Emp name</t>
         </is>
       </c>
-      <c r="B7" s="16" t="inlineStr">
+      <c r="B7" s="17" t="inlineStr">
         <is>
           <t>Personal Email</t>
         </is>
       </c>
-      <c r="C7" s="16" t="inlineStr">
+      <c r="C7" s="17" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D7" s="16" t="inlineStr">
+      <c r="D7" s="17" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="E7" s="16" t="inlineStr">
+      <c r="E7" s="17" t="inlineStr">
         <is>
           <t>Email address</t>
         </is>
       </c>
-      <c r="I7" s="23" t="n"/>
-      <c r="J7" s="23" t="n"/>
-      <c r="K7" s="23" t="n"/>
-    </row>
-    <row r="8" ht="27.75" customHeight="1" s="15">
-      <c r="A8" s="14" t="inlineStr">
+      <c r="I7" s="24" t="n"/>
+      <c r="J7" s="24" t="n"/>
+      <c r="K7" s="24" t="n"/>
+    </row>
+    <row r="8" ht="27.75" customHeight="1" s="16">
+      <c r="A8" s="15" t="inlineStr">
         <is>
           <t>Ivy</t>
         </is>
       </c>
-      <c r="B8" s="14" t="inlineStr">
-        <is>
-          <t>personaldadk5fky@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="C8" s="14" t="inlineStr">
-        <is>
-          <t>94547</t>
-        </is>
-      </c>
-      <c r="D8" s="14" t="inlineStr">
-        <is>
-          <t>6977900074</t>
-        </is>
-      </c>
-      <c r="E8" s="14" t="inlineStr">
-        <is>
-          <t>empdadk5fky@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="H8" s="24" t="inlineStr">
+      <c r="B8" s="15" t="inlineStr">
+        <is>
+          <t>personalcj4o1ivo@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="C8" s="15" t="inlineStr">
+        <is>
+          <t>99639</t>
+        </is>
+      </c>
+      <c r="D8" s="15" t="inlineStr">
+        <is>
+          <t>9690608716</t>
+        </is>
+      </c>
+      <c r="E8" s="15" t="inlineStr">
+        <is>
+          <t>empcj4o1ivo@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="H8" s="25" t="inlineStr">
         <is>
           <t>test_ListedCompanyAddEmp.py</t>
         </is>
       </c>
-      <c r="I8" s="25" t="n"/>
-      <c r="J8" s="26" t="n"/>
-      <c r="K8" s="26" t="n"/>
-    </row>
-    <row r="9" ht="27.75" customHeight="1" s="15">
-      <c r="A9" s="16" t="inlineStr">
+      <c r="I8" s="26" t="n"/>
+      <c r="J8" s="27" t="n"/>
+      <c r="K8" s="27" t="n"/>
+    </row>
+    <row r="9" ht="27.75" customHeight="1" s="16">
+      <c r="A9" s="17" t="inlineStr">
         <is>
           <t>company name (Manually) - Emp sign up with domain</t>
         </is>
       </c>
-      <c r="B9" s="17" t="inlineStr">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>Listed Companies Email</t>
         </is>
       </c>
-      <c r="C9" s="16" t="inlineStr">
+      <c r="C9" s="17" t="inlineStr">
         <is>
           <t>Fullname (Admin)  -row 10 with domain signUp  
 row 11 inside company</t>
         </is>
       </c>
-      <c r="D9" s="16" t="inlineStr">
+      <c r="D9" s="17" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="E9" s="16" t="inlineStr">
+      <c r="E9" s="17" t="inlineStr">
         <is>
           <t>Emp email id</t>
         </is>
       </c>
-      <c r="H9" s="17" t="inlineStr">
+      <c r="H9" s="18" t="inlineStr">
         <is>
           <t>Listed Companies Name</t>
         </is>
       </c>
-      <c r="I9" s="17" t="inlineStr">
+      <c r="I9" s="18" t="inlineStr">
         <is>
           <t>Listed Companies Email</t>
         </is>
       </c>
-      <c r="J9" s="18" t="inlineStr">
+      <c r="J9" s="19" t="inlineStr">
         <is>
           <t>Emp Name</t>
         </is>
       </c>
-      <c r="K9" s="18" t="inlineStr">
+      <c r="K9" s="19" t="inlineStr">
         <is>
           <t>Emp Email</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="27.75" customHeight="1" s="15">
-      <c r="A10" s="14" t="inlineStr">
+    <row r="10" ht="27.75" customHeight="1" s="16">
+      <c r="A10" s="15" t="inlineStr">
         <is>
           <t>Bryan Solutions Inc.</t>
         </is>
       </c>
-      <c r="B10" s="19" t="inlineStr">
+      <c r="B10" s="20" t="inlineStr">
         <is>
           <t>hd4hdqq@yopmail.com</t>
         </is>
       </c>
-      <c r="C10" s="14" t="inlineStr">
+      <c r="C10" s="15" t="inlineStr">
         <is>
           <t>Daniel</t>
         </is>
       </c>
-      <c r="D10" s="14" t="inlineStr">
+      <c r="D10" s="15" t="inlineStr">
         <is>
           <t>6745084846</t>
         </is>
       </c>
-      <c r="E10" s="14" t="inlineStr">
+      <c r="E10" s="15" t="inlineStr">
         <is>
           <t>vy0ntn620@mailcatch.com</t>
         </is>
       </c>
-      <c r="H10" s="19" t="inlineStr">
+      <c r="H10" s="20" t="inlineStr">
         <is>
           <t>Olivia Solutions Private Limited</t>
         </is>
       </c>
-      <c r="I10" s="19" t="inlineStr">
+      <c r="I10" s="20" t="inlineStr">
         <is>
           <t>v6xvrsx@mailcatch.com</t>
         </is>
       </c>
-      <c r="J10" s="20" t="inlineStr">
+      <c r="J10" s="21" t="inlineStr">
         <is>
           <t>Nathan</t>
         </is>
       </c>
-      <c r="K10" s="20" t="inlineStr">
+      <c r="K10" s="21" t="inlineStr">
         <is>
           <t>personalpe0cgo4@mailcatch.com</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="27.75" customHeight="1" s="15">
-      <c r="A11" s="27" t="inlineStr">
+    <row r="11" ht="27.75" customHeight="1" s="16">
+      <c r="A11" s="28" t="inlineStr">
         <is>
           <t>Winston</t>
         </is>
       </c>
-      <c r="B11" s="27" t="inlineStr">
+      <c r="B11" s="28" t="inlineStr">
         <is>
           <t>personalg5g9lcdn@mailcatch.com</t>
         </is>
       </c>
-      <c r="C11" s="27" t="inlineStr">
+      <c r="C11" s="28" t="inlineStr">
         <is>
           <t>90759</t>
         </is>
       </c>
-      <c r="D11" s="27" t="inlineStr">
+      <c r="D11" s="28" t="inlineStr">
         <is>
           <t>8193899379</t>
         </is>
       </c>
-      <c r="E11" s="27" t="inlineStr">
+      <c r="E11" s="28" t="inlineStr">
         <is>
           <t>empg5g9lcdn@mailcatch.com</t>
         </is>
       </c>
-      <c r="J11" s="26" t="n"/>
-      <c r="K11" s="26" t="n"/>
-    </row>
-    <row r="13" ht="27.75" customHeight="1" s="15">
-      <c r="A13" s="16" t="inlineStr">
+      <c r="J11" s="27" t="n"/>
+      <c r="K11" s="27" t="n"/>
+    </row>
+    <row r="13" ht="27.75" customHeight="1" s="16">
+      <c r="A13" s="17" t="inlineStr">
         <is>
           <t>Anand(Company name</t>
         </is>
       </c>
-      <c r="B13" s="16" t="inlineStr">
+      <c r="B13" s="17" t="inlineStr">
         <is>
           <t>Email ID</t>
         </is>
       </c>
-      <c r="C13" s="16" t="inlineStr">
+      <c r="C13" s="17" t="inlineStr">
         <is>
           <t>Fullname</t>
         </is>
       </c>
-      <c r="D13" s="16" t="inlineStr">
+      <c r="D13" s="17" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="E13" s="16" t="inlineStr">
+      <c r="E13" s="17" t="inlineStr">
         <is>
           <t>Emp email id</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="27.75" customHeight="1" s="15">
-      <c r="A14" s="14" t="inlineStr">
+    <row r="14" ht="27.75" customHeight="1" s="16">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>Mahindra</t>
         </is>
       </c>
-      <c r="B14" s="14" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>mahindra@yopmail.com</t>
         </is>
       </c>
-      <c r="C14" s="14" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>Anand Mahindra</t>
         </is>
       </c>
-      <c r="D14" s="14" t="n">
+      <c r="D14" s="15" t="n">
         <v>8732732766</v>
       </c>
-      <c r="E14" s="14" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>anandpk@yopmail.com</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="27.75" customHeight="1" s="15">
-      <c r="B15" s="14" t="inlineStr">
+    <row r="15" ht="27.75" customHeight="1" s="16">
+      <c r="B15" s="15" t="inlineStr">
         <is>
           <t>j@yopmail.com</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="27.75" customHeight="1" s="15">
-      <c r="A16" s="14" t="inlineStr">
+    <row r="16" ht="27.75" customHeight="1" s="16">
+      <c r="A16" s="15" t="inlineStr">
         <is>
           <t>software Bryan</t>
         </is>
       </c>
-      <c r="B16" s="14" t="inlineStr">
+      <c r="B16" s="15" t="inlineStr">
         <is>
           <t>kris@yopmail.com</t>
         </is>
       </c>
-      <c r="C16" s="14" t="inlineStr">
+      <c r="C16" s="15" t="inlineStr">
         <is>
           <t>MarketingBryan</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="27.75" customHeight="1" s="15">
-      <c r="A20" s="24" t="inlineStr">
+    <row r="17" ht="28" customHeight="1" s="16">
+      <c r="A17" s="17" t="inlineStr">
+        <is>
+          <t>Emp Name Invite (Employees) 19. column company Name</t>
+        </is>
+      </c>
+      <c r="B17" s="17" t="inlineStr">
+        <is>
+          <t>Personal Email       19.SuperAdmin Name</t>
+        </is>
+      </c>
+      <c r="C17" s="17" t="inlineStr">
+        <is>
+          <t>Emp Invite email</t>
+        </is>
+      </c>
+      <c r="D17" s="17" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="E17" s="17" t="inlineStr">
+        <is>
+          <t>Email address</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="27.75" customHeight="1" s="16">
+      <c r="A18" s="29" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="B18" s="29" t="inlineStr">
+        <is>
+          <t>personaldkta1qcq@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="C18" s="29" t="inlineStr">
+        <is>
+          <t>dkta1qcq@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="D18" s="29" t="inlineStr">
+        <is>
+          <t>9641950522</t>
+        </is>
+      </c>
+      <c r="E18" s="29" t="inlineStr">
+        <is>
+          <t>r2p7cj8w@mailcatch.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="29" t="inlineStr">
+        <is>
+          <t>Nathan Solutions Enterprises</t>
+        </is>
+      </c>
+      <c r="B19" s="29" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="D19" s="29" t="inlineStr">
+        <is>
+          <t>7986746632</t>
+        </is>
+      </c>
+      <c r="E19" s="29" t="inlineStr">
+        <is>
+          <t>jsoizfma@mailcatch.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="27.75" customHeight="1" s="16">
+      <c r="A20" s="25" t="inlineStr">
         <is>
           <t>Certification name</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="27.75" customHeight="1" s="15">
-      <c r="A21" s="19" t="inlineStr">
+    <row r="21" ht="27.75" customHeight="1" s="16">
+      <c r="A21" s="20" t="inlineStr">
         <is>
           <t>CertificateqVVdu</t>
         </is>
@@ -1029,7 +1111,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="bahly215@mailcatch.com" r:id="rId1"/>
+    <hyperlink ref="A2" display="glolzpaz@mailcatch.com" r:id="rId1"/>
     <hyperlink ref="K2" display="employeeone@yopmail.com" r:id="rId2"/>
     <hyperlink ref="K3" display="employeetwo@yopmail.com" r:id="rId3"/>
     <hyperlink ref="K4" display="employeethree@yopmail.com" r:id="rId4"/>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -2,55 +2,48 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="14320" windowHeight="6750" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="28">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <family val="0"/>
       <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
-      <family val="0"/>
+      <color theme="1"/>
+      <sz val="10.5"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color theme="9"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="4"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <family val="0"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="14"/>
@@ -58,7 +51,6 @@
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <family val="0"/>
       <color theme="10"/>
       <sz val="14"/>
       <u val="single"/>
@@ -66,19 +58,167 @@
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <family val="0"/>
       <color theme="1"/>
       <sz val="14"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <family val="0"/>
-      <color theme="9"/>
-      <sz val="11"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill/>
     </fill>
@@ -93,18 +233,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.6"/>
         <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -113,232 +439,688 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF5B9BD5"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFBDD7EE"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF70AD47"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="005B9BD5"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000563C1"/>
+      <rgbColor rgb="00BDD7EE"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="0070AD47"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -365,7 +1147,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -389,7 +1171,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -449,579 +1231,580 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="22.55078125" defaultRowHeight="27.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="22.5545454545455" defaultRowHeight="14.5"/>
   <cols>
-    <col width="28" customWidth="1" style="14" min="1" max="2"/>
-    <col width="32.55" customWidth="1" style="14" min="3" max="3"/>
-    <col width="17" customWidth="1" style="14" min="4" max="4"/>
-    <col width="25.45" customWidth="1" style="14" min="5" max="5"/>
-    <col width="9" customWidth="1" style="14" min="6" max="7"/>
-    <col width="34.27" customWidth="1" style="14" min="8" max="8"/>
-    <col width="23.91" customWidth="1" style="14" min="9" max="9"/>
-    <col width="12.55" customWidth="1" style="14" min="10" max="10"/>
-    <col width="28.82" customWidth="1" style="14" min="11" max="11"/>
-    <col width="20.55" customWidth="1" style="14" min="12" max="12"/>
-    <col width="12.45" customWidth="1" style="14" min="13" max="13"/>
-    <col width="9" customWidth="1" style="14" min="14" max="32"/>
-    <col width="22.55" customWidth="1" style="14" min="33" max="16384"/>
+    <col width="28" customWidth="1" style="1" min="1" max="2"/>
+    <col width="32.5454545454545" customWidth="1" style="1" min="3" max="3"/>
+    <col width="17" customWidth="1" style="1" min="4" max="4"/>
+    <col width="25.4545454545455" customWidth="1" style="1" min="5" max="5"/>
+    <col width="9" customWidth="1" style="1" min="6" max="7"/>
+    <col width="34.2727272727273" customWidth="1" style="1" min="8" max="8"/>
+    <col width="23.9090909090909" customWidth="1" style="1" min="9" max="9"/>
+    <col width="12.5545454545455" customWidth="1" style="1" min="10" max="10"/>
+    <col width="28.8181818181818" customWidth="1" style="1" min="11" max="11"/>
+    <col width="20.5454545454545" customWidth="1" style="1" min="12" max="12"/>
+    <col width="12.4454545454545" customWidth="1" style="1" min="13" max="13"/>
+    <col width="9" customWidth="1" style="1" min="14" max="32"/>
+    <col width="22.5454545454545" customWidth="1" style="1" min="33" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1" s="15">
-      <c r="A1" s="16" t="inlineStr">
+    <row r="1" ht="27.75" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Company Sign Up Email</t>
         </is>
       </c>
-      <c r="B1" s="16" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>contactname</t>
         </is>
       </c>
-      <c r="C1" s="16" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>company name</t>
         </is>
       </c>
-      <c r="D1" s="16" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="H1" s="17" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Listed Companies Name</t>
         </is>
       </c>
-      <c r="I1" s="17" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Listed Companies Email</t>
         </is>
       </c>
-      <c r="J1" s="18" t="inlineStr">
+      <c r="J1" s="9" t="inlineStr">
         <is>
           <t>Emp Name</t>
         </is>
       </c>
-      <c r="K1" s="18" t="inlineStr">
+      <c r="K1" s="9" t="inlineStr">
         <is>
           <t>Emp Email</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="27.75" customHeight="1" s="15">
-      <c r="A2" s="19" t="inlineStr">
-        <is>
-          <t>rttyoadc@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="B2" s="14" t="inlineStr">
-        <is>
-          <t>Zane</t>
-        </is>
-      </c>
-      <c r="C2" s="14" t="inlineStr">
-        <is>
-          <t>Henry Services Group</t>
-        </is>
-      </c>
-      <c r="D2" s="14" t="inlineStr">
-        <is>
-          <t>9006269080</t>
-        </is>
-      </c>
-      <c r="H2" s="19" t="inlineStr">
+    <row r="2" ht="27.75" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>d0qc7g82@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Kylie</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Amelia Technologies Private Limited</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>7685339066</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>TestaaoIV Innovations Inc.</t>
         </is>
       </c>
-      <c r="I2" s="19" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>donu1ql@mailcatch.com</t>
         </is>
       </c>
-      <c r="J2" s="20" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>Krishna</t>
         </is>
       </c>
-      <c r="K2" s="20" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>employeeone@yopmail.com</t>
         </is>
       </c>
-      <c r="L2" s="14" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>SEND Conection OF(display connection)</t>
         </is>
       </c>
-      <c r="M2" s="21" t="inlineStr">
+      <c r="M2" s="10" t="inlineStr">
         <is>
           <t>manufacture</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="27.75" customHeight="1" s="15">
-      <c r="A3" s="16" t="inlineStr">
+    <row r="3" ht="27.75" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Individual Sign Up Email</t>
         </is>
       </c>
-      <c r="B3" s="16" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Fullname</t>
         </is>
       </c>
-      <c r="C3" s="16" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
       </c>
-      <c r="D3" s="16" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="H3" s="19" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>TestkVqcq Services LLC</t>
         </is>
       </c>
-      <c r="I3" s="19" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>qaq1rj2@mailcatch.com</t>
         </is>
       </c>
-      <c r="J3" s="20" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>Anand</t>
         </is>
       </c>
-      <c r="K3" s="20" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>employeetwo@yopmail.com</t>
         </is>
       </c>
-      <c r="L3" s="22" t="inlineStr">
+      <c r="L3" s="11" t="inlineStr">
         <is>
           <t>Connection(display OF)</t>
         </is>
       </c>
-      <c r="M3" s="21" t="inlineStr">
+      <c r="M3" s="10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="27.75" customHeight="1" s="15">
-      <c r="A4" s="14" t="inlineStr">
+    <row r="4" ht="27.75" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>q6484lk@yopmail.com</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>TestGaHLI</t>
         </is>
       </c>
-      <c r="C4" s="14" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Inlynk@123</t>
         </is>
       </c>
-      <c r="D4" s="14" t="inlineStr">
+      <c r="D4" s="1" t="inlineStr">
         <is>
           <t>7405505882</t>
         </is>
       </c>
-      <c r="H4" s="19" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>TestWQZPV Solutions Enterprises</t>
         </is>
       </c>
-      <c r="I4" s="19" t="inlineStr">
+      <c r="I4" s="4" t="inlineStr">
         <is>
           <t>bjqvi6d@mailcatch.com</t>
         </is>
       </c>
-      <c r="J4" s="20" t="inlineStr">
+      <c r="J4" s="5" t="inlineStr">
         <is>
           <t>Badhri</t>
         </is>
       </c>
-      <c r="K4" s="20" t="inlineStr">
+      <c r="K4" s="5" t="inlineStr">
         <is>
           <t>employeethree@yopmail.com</t>
         </is>
       </c>
-      <c r="M4" s="21" t="inlineStr">
+      <c r="M4" s="10" t="inlineStr">
         <is>
           <t>share holder</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="27.75" customHeight="1" s="15">
-      <c r="A5" s="16" t="inlineStr">
+    <row r="5" ht="27.75" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Emp Creation From SignUp WD
 Fullname (normal Emp)</t>
         </is>
       </c>
-      <c r="B5" s="16" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Emp email id</t>
         </is>
       </c>
-      <c r="C5" s="16" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>Emp Creation From SignUp WD
 Fullname (ADMIN EMP)</t>
         </is>
       </c>
-      <c r="D5" s="16" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>Emp email id</t>
         </is>
       </c>
-      <c r="E5" s="16" t="n"/>
-      <c r="H5" s="19" t="inlineStr">
+      <c r="E5" s="2" t="n"/>
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>TestEkOYP Systems Group</t>
         </is>
       </c>
-      <c r="I5" s="19" t="inlineStr">
+      <c r="I5" s="4" t="inlineStr">
         <is>
           <t>l38a8ij@mailcatch.com</t>
         </is>
       </c>
-      <c r="J5" s="20" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>Hamesh</t>
         </is>
       </c>
-      <c r="K5" s="20" t="inlineStr">
+      <c r="K5" s="5" t="inlineStr">
         <is>
           <t>employeefour@yopmail.com</t>
         </is>
       </c>
-      <c r="M5" s="21" t="n"/>
+      <c r="M5" s="10" t="n"/>
     </row>
-    <row r="6" ht="27.75" customHeight="1" s="15">
-      <c r="A6" s="20" t="inlineStr">
+    <row r="6" ht="27.75" customHeight="1">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Hudson</t>
         </is>
       </c>
-      <c r="B6" s="20" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>twt0mco9@mailcatch.com</t>
         </is>
       </c>
-      <c r="C6" s="14" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Dylan</t>
         </is>
       </c>
-      <c r="D6" s="14" t="inlineStr">
-        <is>
-          <t>tp5me2od@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="E6" s="20" t="n"/>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>kris@yopmail.com</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="n"/>
     </row>
-    <row r="7" ht="27.75" customHeight="1" s="15">
-      <c r="A7" s="16" t="inlineStr">
+    <row r="7" ht="27.75" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Added Employees from inside the company - Emp name</t>
         </is>
       </c>
-      <c r="B7" s="16" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Personal Email</t>
         </is>
       </c>
-      <c r="C7" s="16" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D7" s="16" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="E7" s="16" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>Email address</t>
         </is>
       </c>
-      <c r="I7" s="23" t="n"/>
-      <c r="J7" s="23" t="n"/>
-      <c r="K7" s="23" t="n"/>
+      <c r="I7" s="12" t="n"/>
+      <c r="J7" s="12" t="n"/>
+      <c r="K7" s="12" t="n"/>
     </row>
-    <row r="8" ht="27.75" customHeight="1" s="15">
-      <c r="A8" s="14" t="inlineStr">
+    <row r="8" ht="27.75" customHeight="1">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Ivy</t>
         </is>
       </c>
-      <c r="B8" s="14" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>personaldadk5fky@mailcatch.com</t>
         </is>
       </c>
-      <c r="C8" s="14" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>94547</t>
         </is>
       </c>
-      <c r="D8" s="14" t="inlineStr">
+      <c r="D8" s="1" t="inlineStr">
         <is>
           <t>6977900074</t>
         </is>
       </c>
-      <c r="E8" s="14" t="inlineStr">
+      <c r="E8" s="1" t="inlineStr">
         <is>
           <t>empdadk5fky@mailcatch.com</t>
         </is>
       </c>
-      <c r="H8" s="24" t="inlineStr">
+      <c r="H8" s="7" t="inlineStr">
         <is>
           <t>test_ListedCompanyAddEmp.py</t>
         </is>
       </c>
-      <c r="I8" s="25" t="n"/>
-      <c r="J8" s="26" t="n"/>
-      <c r="K8" s="26" t="n"/>
+      <c r="I8" s="13" t="n"/>
+      <c r="J8" s="14" t="n"/>
+      <c r="K8" s="14" t="n"/>
     </row>
-    <row r="9" ht="27.75" customHeight="1" s="15">
-      <c r="A9" s="16" t="inlineStr">
+    <row r="9" ht="27.75" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>company name (Manually) - Emp sign up with domain</t>
         </is>
       </c>
-      <c r="B9" s="17" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>Listed Companies Email</t>
         </is>
       </c>
-      <c r="C9" s="16" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>Fullname (Admin)  -row 10 with domain signUp  
 row 11 inside company</t>
         </is>
       </c>
-      <c r="D9" s="16" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="E9" s="16" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Emp email id</t>
         </is>
       </c>
-      <c r="H9" s="17" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>Listed Companies Name</t>
         </is>
       </c>
-      <c r="I9" s="17" t="inlineStr">
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>Listed Companies Email</t>
         </is>
       </c>
-      <c r="J9" s="18" t="inlineStr">
+      <c r="J9" s="9" t="inlineStr">
         <is>
           <t>Emp Name</t>
         </is>
       </c>
-      <c r="K9" s="18" t="inlineStr">
+      <c r="K9" s="9" t="inlineStr">
         <is>
           <t>Emp Email</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="27.75" customHeight="1" s="15">
-      <c r="A10" s="14" t="inlineStr">
+    <row r="10" ht="27.75" customHeight="1">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Bryan Solutions Inc.</t>
         </is>
       </c>
-      <c r="B10" s="19" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>hd4hdqq@yopmail.com</t>
         </is>
       </c>
-      <c r="C10" s="14" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>Daniel</t>
         </is>
       </c>
-      <c r="D10" s="14" t="inlineStr">
+      <c r="D10" s="1" t="inlineStr">
         <is>
           <t>6745084846</t>
         </is>
       </c>
-      <c r="E10" s="14" t="inlineStr">
+      <c r="E10" s="1" t="inlineStr">
         <is>
           <t>vy0ntn620@mailcatch.com</t>
         </is>
       </c>
-      <c r="H10" s="19" t="inlineStr">
+      <c r="H10" s="4" t="inlineStr">
         <is>
           <t>Olivia Solutions Private Limited</t>
         </is>
       </c>
-      <c r="I10" s="19" t="inlineStr">
+      <c r="I10" s="4" t="inlineStr">
         <is>
           <t>v6xvrsx@mailcatch.com</t>
         </is>
       </c>
-      <c r="J10" s="20" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>Nathan</t>
         </is>
       </c>
-      <c r="K10" s="20" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>personalpe0cgo4@mailcatch.com</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="27.75" customHeight="1" s="15">
-      <c r="A11" s="27" t="inlineStr">
+    <row r="11" ht="27.75" customHeight="1">
+      <c r="A11" s="8" t="inlineStr">
         <is>
           <t>Winston</t>
         </is>
       </c>
-      <c r="B11" s="27" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>personalg5g9lcdn@mailcatch.com</t>
         </is>
       </c>
-      <c r="C11" s="27" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>90759</t>
         </is>
       </c>
-      <c r="D11" s="27" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t>8193899379</t>
         </is>
       </c>
-      <c r="E11" s="27" t="inlineStr">
+      <c r="E11" s="8" t="inlineStr">
         <is>
           <t>empg5g9lcdn@mailcatch.com</t>
         </is>
       </c>
-      <c r="J11" s="26" t="n"/>
-      <c r="K11" s="26" t="n"/>
+      <c r="J11" s="14" t="n"/>
+      <c r="K11" s="14" t="n"/>
     </row>
-    <row r="13" ht="27.75" customHeight="1" s="15">
-      <c r="A13" s="16" t="inlineStr">
+    <row r="13" ht="27.75" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Anand(Company name</t>
         </is>
       </c>
-      <c r="B13" s="16" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Email ID</t>
         </is>
       </c>
-      <c r="C13" s="16" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>Fullname</t>
         </is>
       </c>
-      <c r="D13" s="16" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="E13" s="16" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>Emp email id</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="27.75" customHeight="1" s="15">
-      <c r="A14" s="14" t="inlineStr">
+    <row r="14" ht="27.75" customHeight="1">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Mahindra</t>
         </is>
       </c>
-      <c r="B14" s="14" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
         <is>
           <t>mahindra@yopmail.com</t>
         </is>
       </c>
-      <c r="C14" s="14" t="inlineStr">
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>Anand Mahindra</t>
         </is>
       </c>
-      <c r="D14" s="14" t="n">
+      <c r="D14" s="1" t="n">
         <v>8732732766</v>
       </c>
-      <c r="E14" s="14" t="inlineStr">
+      <c r="E14" s="1" t="inlineStr">
         <is>
           <t>anandpk@yopmail.com</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="27.75" customHeight="1" s="15">
-      <c r="B15" s="14" t="inlineStr">
+    <row r="15" ht="27.75" customHeight="1">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>j@yopmail.com</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="27.75" customHeight="1" s="15">
-      <c r="A16" s="14" t="inlineStr">
-        <is>
-          <t>software Elena</t>
-        </is>
-      </c>
-      <c r="B16" s="14" t="inlineStr">
+    <row r="16" ht="27.75" customHeight="1">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>software Penelope</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>kris@yopmail.com</t>
         </is>
       </c>
-      <c r="C16" s="14" t="inlineStr">
-        <is>
-          <t>MarketingElena</t>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>MarketingPenelope</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="27.75" customHeight="1" s="15">
-      <c r="A20" s="24" t="inlineStr">
+    <row r="20" ht="27.75" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
         <is>
           <t>Certification name</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="27.75" customHeight="1" s="15">
-      <c r="A21" s="19" t="inlineStr">
+    <row r="21" ht="27.75" customHeight="1">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>CertificateqVVdu</t>
         </is>
@@ -1029,14 +1812,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="bahly215@mailcatch.com" r:id="rId1"/>
+    <hyperlink ref="A2" display="rttyoadc@mailcatch.com" r:id="rId1"/>
     <hyperlink ref="K2" display="employeeone@yopmail.com" r:id="rId2"/>
     <hyperlink ref="K3" display="employeetwo@yopmail.com" r:id="rId3"/>
     <hyperlink ref="K4" display="employeethree@yopmail.com" r:id="rId4"/>
     <hyperlink ref="K5" display="employeefour@yopmail.com" r:id="rId5"/>
   </hyperlinks>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -24,10 +24,20 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="10.5"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -65,22 +75,6 @@
       <name val="Arial"/>
       <charset val="134"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -554,18 +548,21 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
@@ -574,122 +571,119 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -700,33 +694,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1249,7 +1248,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="22.5545454545455" defaultRowHeight="14.5"/>
@@ -1300,12 +1299,12 @@
           <t>Listed Companies Email</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="J1" s="10" t="inlineStr">
         <is>
           <t>Emp Name</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="K1" s="10" t="inlineStr">
         <is>
           <t>Emp Email</t>
         </is>
@@ -1314,40 +1313,40 @@
     <row r="2" ht="27.75" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>d0qc7g82@mailcatch.com</t>
+          <t>wl42fguh@mailcatch.com</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Kylie</t>
+          <t>gemma</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Amelia Technologies Private Limited</t>
+          <t>Owen Systems Private Limited</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>7685339066</t>
-        </is>
-      </c>
-      <c r="H2" s="4" t="inlineStr">
+          <t>7844772734</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>TestaaoIV Innovations Inc.</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>donu1ql@mailcatch.com</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="J2" s="6" t="inlineStr">
         <is>
           <t>Krishna</t>
         </is>
       </c>
-      <c r="K2" s="5" t="inlineStr">
+      <c r="K2" s="6" t="inlineStr">
         <is>
           <t>employeeone@yopmail.com</t>
         </is>
@@ -1357,7 +1356,7 @@
           <t>SEND Conection OF(display connection)</t>
         </is>
       </c>
-      <c r="M2" s="10" t="inlineStr">
+      <c r="M2" s="11" t="inlineStr">
         <is>
           <t>manufacture</t>
         </is>
@@ -1384,32 +1383,32 @@
           <t>Phone</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>TestkVqcq Services LLC</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>qaq1rj2@mailcatch.com</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="J3" s="6" t="inlineStr">
         <is>
           <t>Anand</t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="K3" s="6" t="inlineStr">
         <is>
           <t>employeetwo@yopmail.com</t>
         </is>
       </c>
-      <c r="L3" s="11" t="inlineStr">
+      <c r="L3" s="12" t="inlineStr">
         <is>
           <t>Connection(display OF)</t>
         </is>
       </c>
-      <c r="M3" s="10" t="inlineStr">
+      <c r="M3" s="11" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
@@ -1436,27 +1435,27 @@
           <t>7405505882</t>
         </is>
       </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>TestWQZPV Solutions Enterprises</t>
         </is>
       </c>
-      <c r="I4" s="4" t="inlineStr">
+      <c r="I4" s="5" t="inlineStr">
         <is>
           <t>bjqvi6d@mailcatch.com</t>
         </is>
       </c>
-      <c r="J4" s="5" t="inlineStr">
+      <c r="J4" s="6" t="inlineStr">
         <is>
           <t>Badhri</t>
         </is>
       </c>
-      <c r="K4" s="5" t="inlineStr">
+      <c r="K4" s="6" t="inlineStr">
         <is>
           <t>employeethree@yopmail.com</t>
         </is>
       </c>
-      <c r="M4" s="10" t="inlineStr">
+      <c r="M4" s="11" t="inlineStr">
         <is>
           <t>share holder</t>
         </is>
@@ -1486,50 +1485,50 @@
         </is>
       </c>
       <c r="E5" s="2" t="n"/>
-      <c r="H5" s="4" t="inlineStr">
+      <c r="H5" s="5" t="inlineStr">
         <is>
           <t>TestEkOYP Systems Group</t>
         </is>
       </c>
-      <c r="I5" s="4" t="inlineStr">
+      <c r="I5" s="5" t="inlineStr">
         <is>
           <t>l38a8ij@mailcatch.com</t>
         </is>
       </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="J5" s="6" t="inlineStr">
         <is>
           <t>Hamesh</t>
         </is>
       </c>
-      <c r="K5" s="5" t="inlineStr">
+      <c r="K5" s="6" t="inlineStr">
         <is>
           <t>employeefour@yopmail.com</t>
         </is>
       </c>
-      <c r="M5" s="10" t="n"/>
+      <c r="M5" s="11" t="n"/>
     </row>
     <row r="6" ht="27.75" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Hudson</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>twt0mco9@mailcatch.com</t>
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Henry</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>y5o7g70w@mailcatch.com</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>Dylan</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>kris@yopmail.com</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="n"/>
+          <t>Leo</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>a2qzmkr1@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="n"/>
     </row>
     <row r="7" ht="27.75" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -1557,9 +1556,9 @@
           <t>Email address</t>
         </is>
       </c>
-      <c r="I7" s="12" t="n"/>
-      <c r="J7" s="12" t="n"/>
-      <c r="K7" s="12" t="n"/>
+      <c r="I7" s="13" t="n"/>
+      <c r="J7" s="13" t="n"/>
+      <c r="K7" s="13" t="n"/>
     </row>
     <row r="8" ht="27.75" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
@@ -1587,14 +1586,14 @@
           <t>empdadk5fky@mailcatch.com</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr">
+      <c r="H8" s="8" t="inlineStr">
         <is>
           <t>test_ListedCompanyAddEmp.py</t>
         </is>
       </c>
-      <c r="I8" s="13" t="n"/>
-      <c r="J8" s="14" t="n"/>
-      <c r="K8" s="14" t="n"/>
+      <c r="I8" s="14" t="n"/>
+      <c r="J8" s="15" t="n"/>
+      <c r="K8" s="15" t="n"/>
     </row>
     <row r="9" ht="27.75" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -1633,12 +1632,12 @@
           <t>Listed Companies Email</t>
         </is>
       </c>
-      <c r="J9" s="9" t="inlineStr">
+      <c r="J9" s="10" t="inlineStr">
         <is>
           <t>Emp Name</t>
         </is>
       </c>
-      <c r="K9" s="9" t="inlineStr">
+      <c r="K9" s="10" t="inlineStr">
         <is>
           <t>Emp Email</t>
         </is>
@@ -1650,7 +1649,7 @@
           <t>Bryan Solutions Inc.</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>hd4hdqq@yopmail.com</t>
         </is>
@@ -1670,55 +1669,55 @@
           <t>vy0ntn620@mailcatch.com</t>
         </is>
       </c>
-      <c r="H10" s="4" t="inlineStr">
+      <c r="H10" s="5" t="inlineStr">
         <is>
           <t>Olivia Solutions Private Limited</t>
         </is>
       </c>
-      <c r="I10" s="4" t="inlineStr">
+      <c r="I10" s="5" t="inlineStr">
         <is>
           <t>v6xvrsx@mailcatch.com</t>
         </is>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="J10" s="6" t="inlineStr">
         <is>
           <t>Nathan</t>
         </is>
       </c>
-      <c r="K10" s="5" t="inlineStr">
+      <c r="K10" s="6" t="inlineStr">
         <is>
           <t>personalpe0cgo4@mailcatch.com</t>
         </is>
       </c>
     </row>
     <row r="11" ht="27.75" customHeight="1">
-      <c r="A11" s="8" t="inlineStr">
+      <c r="A11" s="9" t="inlineStr">
         <is>
           <t>Winston</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>personalg5g9lcdn@mailcatch.com</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>90759</t>
         </is>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <t>8193899379</t>
         </is>
       </c>
-      <c r="E11" s="8" t="inlineStr">
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>empg5g9lcdn@mailcatch.com</t>
         </is>
       </c>
-      <c r="J11" s="14" t="n"/>
-      <c r="K11" s="14" t="n"/>
+      <c r="J11" s="15" t="n"/>
+      <c r="K11" s="15" t="n"/>
     </row>
     <row r="13" ht="27.75" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -1782,7 +1781,7 @@
     <row r="16" ht="27.75" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>software Penelope</t>
+          <t>software Bryan</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -1792,31 +1791,33 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>MarketingPenelope</t>
+          <t>MarketingBryan</t>
         </is>
       </c>
     </row>
     <row r="20" ht="27.75" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
+      <c r="A20" s="8" t="inlineStr">
         <is>
           <t>Certification name</t>
         </is>
       </c>
     </row>
     <row r="21" ht="27.75" customHeight="1">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>CertificateqVVdu</t>
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>CertificatevakFz</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="rttyoadc@mailcatch.com" r:id="rId1"/>
+    <hyperlink ref="A2" tooltip="mailto:wl42fguh@mailcatch.com" display="wl42fguh@mailcatch.com" r:id="rId1"/>
     <hyperlink ref="K2" display="employeeone@yopmail.com" r:id="rId2"/>
     <hyperlink ref="K3" display="employeetwo@yopmail.com" r:id="rId3"/>
     <hyperlink ref="K4" display="employeethree@yopmail.com" r:id="rId4"/>
     <hyperlink ref="K5" display="employeefour@yopmail.com" r:id="rId5"/>
+    <hyperlink ref="B6" display="y5o7g70w@mailcatch.com" r:id="rId6"/>
+    <hyperlink ref="D6" display="a2qzmkr1@mailcatch.com" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" paperSize="1" horizontalDpi="300" verticalDpi="300"/>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -537,22 +537,22 @@
     <row r="2" ht="27.75" customHeight="1" s="16">
       <c r="A2" s="20" t="inlineStr">
         <is>
-          <t>glolzpaz@mailcatch.com</t>
+          <t>kxo1fatq@mailcatch.com</t>
         </is>
       </c>
       <c r="B2" s="15" t="inlineStr">
         <is>
-          <t>Liam</t>
+          <t>Milo</t>
         </is>
       </c>
       <c r="C2" s="15" t="inlineStr">
         <is>
-          <t>Quincy Innovations Inc.</t>
+          <t>Xena Systems Inc.</t>
         </is>
       </c>
       <c r="D2" s="15" t="inlineStr">
         <is>
-          <t>9413255028</t>
+          <t>6696475147</t>
         </is>
       </c>
       <c r="H2" s="20" t="inlineStr">
@@ -734,22 +734,22 @@
     <row r="6" ht="27.75" customHeight="1" s="16">
       <c r="A6" s="21" t="inlineStr">
         <is>
-          <t>Hudson</t>
+          <t>Cora</t>
         </is>
       </c>
       <c r="B6" s="21" t="inlineStr">
         <is>
-          <t>twt0mco9@mailcatch.com</t>
+          <t>rujq518m@mailcatch.com</t>
         </is>
       </c>
       <c r="C6" s="15" t="inlineStr">
         <is>
-          <t>Dylan</t>
+          <t>Liam</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
         <is>
-          <t>tp5me2od@mailcatch.com</t>
+          <t>qq7r2lci@mailcatch.com</t>
         </is>
       </c>
       <c r="E6" s="21" t="n"/>
@@ -787,27 +787,27 @@
     <row r="8" ht="27.75" customHeight="1" s="16">
       <c r="A8" s="15" t="inlineStr">
         <is>
-          <t>Ivy</t>
+          <t>Emily</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
         <is>
-          <t>personalcj4o1ivo@mailcatch.com</t>
+          <t>personalqfy5lfvz@mailcatch.com</t>
         </is>
       </c>
       <c r="C8" s="15" t="inlineStr">
         <is>
-          <t>99639</t>
+          <t>99688</t>
         </is>
       </c>
       <c r="D8" s="15" t="inlineStr">
         <is>
-          <t>9690608716</t>
+          <t>6684701842</t>
         </is>
       </c>
       <c r="E8" s="15" t="inlineStr">
         <is>
-          <t>empcj4o1ivo@mailcatch.com</t>
+          <t>empqfy5lfvz@mailcatch.com</t>
         </is>
       </c>
       <c r="H8" s="25" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="C10" s="15" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Riley</t>
         </is>
       </c>
       <c r="D10" s="15" t="inlineStr">
         <is>
-          <t>6745084846</t>
+          <t>9538233230</t>
         </is>
       </c>
       <c r="E10" s="15" t="inlineStr">
         <is>
-          <t>vy0ntn620@mailcatch.com</t>
+          <t>v1dqj7320@mailcatch.com</t>
         </is>
       </c>
       <c r="H10" s="20" t="inlineStr">
@@ -917,27 +917,27 @@
     <row r="11" ht="27.75" customHeight="1" s="16">
       <c r="A11" s="28" t="inlineStr">
         <is>
-          <t>Winston</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="B11" s="28" t="inlineStr">
         <is>
-          <t>personalg5g9lcdn@mailcatch.com</t>
+          <t>personalu4tm2ci9@mailcatch.com</t>
         </is>
       </c>
       <c r="C11" s="28" t="inlineStr">
         <is>
-          <t>90759</t>
+          <t>99424</t>
         </is>
       </c>
       <c r="D11" s="28" t="inlineStr">
         <is>
-          <t>8193899379</t>
+          <t>8755327548</t>
         </is>
       </c>
       <c r="E11" s="28" t="inlineStr">
         <is>
-          <t>empg5g9lcdn@mailcatch.com</t>
+          <t>empu4tm2ci9@mailcatch.com</t>
         </is>
       </c>
       <c r="J11" s="27" t="n"/>
@@ -1005,7 +1005,7 @@
     <row r="16" ht="27.75" customHeight="1" s="16">
       <c r="A16" s="15" t="inlineStr">
         <is>
-          <t>software Bryan</t>
+          <t>software Alice</t>
         </is>
       </c>
       <c r="B16" s="15" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C16" s="15" t="inlineStr">
         <is>
-          <t>MarketingBryan</t>
+          <t>MarketingAlice</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
     <row r="21" ht="27.75" customHeight="1" s="16">
       <c r="A21" s="20" t="inlineStr">
         <is>
-          <t>CertificateqVVdu</t>
+          <t>CertificatecQViJ</t>
         </is>
       </c>
     </row>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -130,7 +130,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -174,6 +174,9 @@
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -211,6 +214,9 @@
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -465,571 +471,647 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="22.55078125" defaultRowHeight="27.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col width="28" customWidth="1" style="14" min="1" max="2"/>
-    <col width="32.55" customWidth="1" style="14" min="3" max="3"/>
-    <col width="17" customWidth="1" style="14" min="4" max="4"/>
-    <col width="25.45" customWidth="1" style="14" min="5" max="5"/>
-    <col width="9" customWidth="1" style="14" min="6" max="7"/>
-    <col width="34.27" customWidth="1" style="14" min="8" max="8"/>
-    <col width="23.91" customWidth="1" style="14" min="9" max="9"/>
-    <col width="12.55" customWidth="1" style="14" min="10" max="10"/>
-    <col width="28.82" customWidth="1" style="14" min="11" max="11"/>
-    <col width="20.55" customWidth="1" style="14" min="12" max="12"/>
-    <col width="12.45" customWidth="1" style="14" min="13" max="13"/>
-    <col width="9" customWidth="1" style="14" min="14" max="32"/>
-    <col width="22.55" customWidth="1" style="14" min="33" max="16384"/>
+    <col width="28" customWidth="1" style="15" min="1" max="2"/>
+    <col width="32.55" customWidth="1" style="15" min="3" max="3"/>
+    <col width="17" customWidth="1" style="15" min="4" max="4"/>
+    <col width="25.45" customWidth="1" style="15" min="5" max="5"/>
+    <col width="9" customWidth="1" style="15" min="6" max="7"/>
+    <col width="34.27" customWidth="1" style="15" min="8" max="8"/>
+    <col width="23.91" customWidth="1" style="15" min="9" max="9"/>
+    <col width="12.55" customWidth="1" style="15" min="10" max="10"/>
+    <col width="28.82" customWidth="1" style="15" min="11" max="11"/>
+    <col width="20.55" customWidth="1" style="15" min="12" max="12"/>
+    <col width="12.45" customWidth="1" style="15" min="13" max="13"/>
+    <col width="9" customWidth="1" style="15" min="14" max="32"/>
+    <col width="22.55" customWidth="1" style="15" min="33" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1" s="15">
-      <c r="A1" s="16" t="inlineStr">
+    <row r="1" ht="27.75" customHeight="1" s="16">
+      <c r="A1" s="17" t="inlineStr">
         <is>
           <t>Company Sign Up Email</t>
         </is>
       </c>
-      <c r="B1" s="16" t="inlineStr">
+      <c r="B1" s="17" t="inlineStr">
         <is>
           <t>contactname</t>
         </is>
       </c>
-      <c r="C1" s="16" t="inlineStr">
+      <c r="C1" s="17" t="inlineStr">
         <is>
           <t>company name</t>
         </is>
       </c>
-      <c r="D1" s="16" t="inlineStr">
+      <c r="D1" s="17" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="H1" s="17" t="inlineStr">
+      <c r="H1" s="18" t="inlineStr">
         <is>
           <t>Listed Companies Name</t>
         </is>
       </c>
-      <c r="I1" s="17" t="inlineStr">
+      <c r="I1" s="18" t="inlineStr">
         <is>
           <t>Listed Companies Email</t>
         </is>
       </c>
-      <c r="J1" s="18" t="inlineStr">
+      <c r="J1" s="19" t="inlineStr">
         <is>
           <t>Emp Name</t>
         </is>
       </c>
-      <c r="K1" s="18" t="inlineStr">
+      <c r="K1" s="19" t="inlineStr">
         <is>
           <t>Emp Email</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="27.75" customHeight="1" s="15">
-      <c r="A2" s="19" t="inlineStr">
-        <is>
-          <t>tvqbo0x1@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="B2" s="14" t="inlineStr">
-        <is>
-          <t>Kylie</t>
-        </is>
-      </c>
-      <c r="C2" s="14" t="inlineStr">
-        <is>
-          <t>Frank Services Private Limited</t>
-        </is>
-      </c>
-      <c r="D2" s="14" t="inlineStr">
-        <is>
-          <t>7488851019</t>
-        </is>
-      </c>
-      <c r="H2" s="19" t="inlineStr">
+    <row r="2" ht="27.75" customHeight="1" s="16">
+      <c r="A2" s="20" t="inlineStr">
+        <is>
+          <t>l3p8dana@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>Tyler</t>
+        </is>
+      </c>
+      <c r="C2" s="15" t="inlineStr">
+        <is>
+          <t>Rebecca Solutions LLC</t>
+        </is>
+      </c>
+      <c r="D2" s="15" t="inlineStr">
+        <is>
+          <t>9020293549</t>
+        </is>
+      </c>
+      <c r="H2" s="20" t="inlineStr">
         <is>
           <t>TestaaoIV Innovations Inc.</t>
         </is>
       </c>
-      <c r="I2" s="19" t="inlineStr">
+      <c r="I2" s="20" t="inlineStr">
         <is>
           <t>donu1ql@mailcatch.com</t>
         </is>
       </c>
-      <c r="J2" s="20" t="inlineStr">
+      <c r="J2" s="21" t="inlineStr">
         <is>
           <t>Krishna</t>
         </is>
       </c>
-      <c r="K2" s="20" t="inlineStr">
+      <c r="K2" s="21" t="inlineStr">
         <is>
           <t>employeeone@yopmail.com</t>
         </is>
       </c>
-      <c r="L2" s="14" t="inlineStr">
+      <c r="L2" s="15" t="inlineStr">
         <is>
           <t>SEND Conection OF(display connection)</t>
         </is>
       </c>
-      <c r="M2" s="21" t="inlineStr">
+      <c r="M2" s="22" t="inlineStr">
         <is>
           <t>manufacture</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="27.75" customHeight="1" s="15">
-      <c r="A3" s="16" t="inlineStr">
+    <row r="3" ht="27.75" customHeight="1" s="16">
+      <c r="A3" s="17" t="inlineStr">
         <is>
           <t>Individual Sign Up Email</t>
         </is>
       </c>
-      <c r="B3" s="16" t="inlineStr">
+      <c r="B3" s="17" t="inlineStr">
         <is>
           <t>Fullname</t>
         </is>
       </c>
-      <c r="C3" s="16" t="inlineStr">
+      <c r="C3" s="17" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
       </c>
-      <c r="D3" s="16" t="inlineStr">
+      <c r="D3" s="17" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="H3" s="19" t="inlineStr">
+      <c r="H3" s="20" t="inlineStr">
         <is>
           <t>TestkVqcq Services LLC</t>
         </is>
       </c>
-      <c r="I3" s="19" t="inlineStr">
+      <c r="I3" s="20" t="inlineStr">
         <is>
           <t>qaq1rj2@mailcatch.com</t>
         </is>
       </c>
-      <c r="J3" s="20" t="inlineStr">
+      <c r="J3" s="21" t="inlineStr">
         <is>
           <t>Anand</t>
         </is>
       </c>
-      <c r="K3" s="20" t="inlineStr">
+      <c r="K3" s="21" t="inlineStr">
         <is>
           <t>employeetwo@yopmail.com</t>
         </is>
       </c>
-      <c r="L3" s="22" t="inlineStr">
+      <c r="L3" s="23" t="inlineStr">
         <is>
           <t>Connection(display OF)</t>
         </is>
       </c>
-      <c r="M3" s="21" t="inlineStr">
+      <c r="M3" s="22" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="27.75" customHeight="1" s="15">
-      <c r="A4" s="14" t="inlineStr">
+    <row r="4" ht="27.75" customHeight="1" s="16">
+      <c r="A4" s="15" t="inlineStr">
         <is>
           <t>q6484lk@yopmail.com</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>TestGaHLI</t>
         </is>
       </c>
-      <c r="C4" s="14" t="inlineStr">
+      <c r="C4" s="15" t="inlineStr">
         <is>
           <t>Inlynk@123</t>
         </is>
       </c>
-      <c r="D4" s="14" t="inlineStr">
+      <c r="D4" s="15" t="inlineStr">
         <is>
           <t>7405505882</t>
         </is>
       </c>
-      <c r="H4" s="19" t="inlineStr">
+      <c r="H4" s="20" t="inlineStr">
         <is>
           <t>TestWQZPV Solutions Enterprises</t>
         </is>
       </c>
-      <c r="I4" s="19" t="inlineStr">
+      <c r="I4" s="20" t="inlineStr">
         <is>
           <t>bjqvi6d@mailcatch.com</t>
         </is>
       </c>
-      <c r="J4" s="20" t="inlineStr">
+      <c r="J4" s="21" t="inlineStr">
         <is>
           <t>Badhri</t>
         </is>
       </c>
-      <c r="K4" s="20" t="inlineStr">
+      <c r="K4" s="21" t="inlineStr">
         <is>
           <t>employeethree@yopmail.com</t>
         </is>
       </c>
-      <c r="M4" s="21" t="inlineStr">
+      <c r="M4" s="22" t="inlineStr">
         <is>
           <t>share holder</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="27.75" customHeight="1" s="15">
-      <c r="A5" s="16" t="inlineStr">
+    <row r="5" ht="27.75" customHeight="1" s="16">
+      <c r="A5" s="17" t="inlineStr">
         <is>
           <t>Emp Creation From SignUp WD
 Fullname (normal Emp)</t>
         </is>
       </c>
-      <c r="B5" s="16" t="inlineStr">
+      <c r="B5" s="17" t="inlineStr">
         <is>
           <t>Emp email id</t>
         </is>
       </c>
-      <c r="C5" s="16" t="inlineStr">
+      <c r="C5" s="17" t="inlineStr">
         <is>
           <t>Emp Creation From SignUp WD
 Fullname (ADMIN EMP)</t>
         </is>
       </c>
-      <c r="D5" s="16" t="inlineStr">
+      <c r="D5" s="17" t="inlineStr">
         <is>
           <t>Emp email id</t>
         </is>
       </c>
-      <c r="E5" s="16" t="n"/>
-      <c r="H5" s="19" t="inlineStr">
+      <c r="E5" s="17" t="n"/>
+      <c r="H5" s="20" t="inlineStr">
         <is>
           <t>TestEkOYP Systems Group</t>
         </is>
       </c>
-      <c r="I5" s="19" t="inlineStr">
+      <c r="I5" s="20" t="inlineStr">
         <is>
           <t>l38a8ij@mailcatch.com</t>
         </is>
       </c>
-      <c r="J5" s="20" t="inlineStr">
+      <c r="J5" s="21" t="inlineStr">
         <is>
           <t>Hamesh</t>
         </is>
       </c>
-      <c r="K5" s="20" t="inlineStr">
+      <c r="K5" s="21" t="inlineStr">
         <is>
           <t>employeefour@yopmail.com</t>
         </is>
       </c>
-      <c r="M5" s="21" t="n"/>
-    </row>
-    <row r="6" ht="27.75" customHeight="1" s="15">
-      <c r="A6" s="20" t="inlineStr">
-        <is>
-          <t>Alice</t>
-        </is>
-      </c>
-      <c r="B6" s="20" t="inlineStr">
-        <is>
-          <t>nc8cfk4s@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="C6" s="14" t="inlineStr">
-        <is>
-          <t>Tyler</t>
-        </is>
-      </c>
-      <c r="D6" s="14" t="inlineStr">
-        <is>
-          <t>bj4ouego@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="E6" s="20" t="n"/>
-    </row>
-    <row r="7" ht="27.75" customHeight="1" s="15">
-      <c r="A7" s="16" t="inlineStr">
+      <c r="M5" s="22" t="n"/>
+    </row>
+    <row r="6" ht="27.75" customHeight="1" s="16">
+      <c r="A6" s="21" t="inlineStr">
+        <is>
+          <t>Henry</t>
+        </is>
+      </c>
+      <c r="B6" s="21" t="inlineStr">
+        <is>
+          <t>bktminn7@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="C6" s="15" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="D6" s="15" t="inlineStr">
+        <is>
+          <t>opevct1b@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="E6" s="21" t="n"/>
+    </row>
+    <row r="7" ht="27.75" customHeight="1" s="16">
+      <c r="A7" s="17" t="inlineStr">
         <is>
           <t>Added Employees from inside the company - Emp name</t>
         </is>
       </c>
-      <c r="B7" s="16" t="inlineStr">
+      <c r="B7" s="17" t="inlineStr">
         <is>
           <t>Personal Email</t>
         </is>
       </c>
-      <c r="C7" s="16" t="inlineStr">
+      <c r="C7" s="17" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="D7" s="16" t="inlineStr">
+      <c r="D7" s="17" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="E7" s="16" t="inlineStr">
+      <c r="E7" s="17" t="inlineStr">
         <is>
           <t>Email address</t>
         </is>
       </c>
-      <c r="I7" s="23" t="n"/>
-      <c r="J7" s="23" t="n"/>
-      <c r="K7" s="23" t="n"/>
-    </row>
-    <row r="8" ht="27.75" customHeight="1" s="15">
-      <c r="A8" s="14" t="inlineStr">
-        <is>
-          <t>Felix</t>
-        </is>
-      </c>
-      <c r="B8" s="14" t="inlineStr">
-        <is>
-          <t>personalininue9w@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="C8" s="14" t="inlineStr">
-        <is>
-          <t>92224</t>
-        </is>
-      </c>
-      <c r="D8" s="14" t="inlineStr">
-        <is>
-          <t>8607227988</t>
-        </is>
-      </c>
-      <c r="E8" s="14" t="inlineStr">
-        <is>
-          <t>empininue9w@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="H8" s="24" t="inlineStr">
+      <c r="I7" s="24" t="n"/>
+      <c r="J7" s="24" t="n"/>
+      <c r="K7" s="24" t="n"/>
+    </row>
+    <row r="8" ht="27.75" customHeight="1" s="16">
+      <c r="A8" s="15" t="inlineStr">
+        <is>
+          <t>Leo</t>
+        </is>
+      </c>
+      <c r="B8" s="15" t="inlineStr">
+        <is>
+          <t>personalpbzt0y1y@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="C8" s="15" t="inlineStr">
+        <is>
+          <t>96507</t>
+        </is>
+      </c>
+      <c r="D8" s="15" t="inlineStr">
+        <is>
+          <t>8514115155</t>
+        </is>
+      </c>
+      <c r="E8" s="15" t="inlineStr">
+        <is>
+          <t>emppbzt0y1y@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="H8" s="25" t="inlineStr">
         <is>
           <t>test_ListedCompanyAddEmp.py</t>
         </is>
       </c>
-      <c r="I8" s="25" t="n"/>
-      <c r="J8" s="26" t="n"/>
-      <c r="K8" s="26" t="n"/>
-    </row>
-    <row r="9" ht="27.75" customHeight="1" s="15">
-      <c r="A9" s="16" t="inlineStr">
+      <c r="I8" s="26" t="n"/>
+      <c r="J8" s="27" t="n"/>
+      <c r="K8" s="27" t="n"/>
+    </row>
+    <row r="9" ht="27.75" customHeight="1" s="16">
+      <c r="A9" s="17" t="inlineStr">
         <is>
           <t>company name (Manually) - Emp sign up with domain</t>
         </is>
       </c>
-      <c r="B9" s="17" t="inlineStr">
+      <c r="B9" s="18" t="inlineStr">
         <is>
           <t>Listed Companies Email</t>
         </is>
       </c>
-      <c r="C9" s="16" t="inlineStr">
+      <c r="C9" s="17" t="inlineStr">
         <is>
           <t>Fullname (Admin)  -row 10 with domain signUp  
 row 11 inside company</t>
         </is>
       </c>
-      <c r="D9" s="16" t="inlineStr">
+      <c r="D9" s="17" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="E9" s="16" t="inlineStr">
+      <c r="E9" s="17" t="inlineStr">
         <is>
           <t>Emp email id</t>
         </is>
       </c>
-      <c r="H9" s="17" t="inlineStr">
+      <c r="H9" s="18" t="inlineStr">
         <is>
           <t>Listed Companies Name</t>
         </is>
       </c>
-      <c r="I9" s="17" t="inlineStr">
+      <c r="I9" s="18" t="inlineStr">
         <is>
           <t>Listed Companies Email</t>
         </is>
       </c>
-      <c r="J9" s="18" t="inlineStr">
+      <c r="J9" s="19" t="inlineStr">
         <is>
           <t>Emp Name</t>
         </is>
       </c>
-      <c r="K9" s="18" t="inlineStr">
+      <c r="K9" s="19" t="inlineStr">
         <is>
           <t>Emp Email</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="27.75" customHeight="1" s="15">
-      <c r="A10" s="14" t="inlineStr">
+    <row r="10" ht="27.75" customHeight="1" s="16">
+      <c r="A10" s="15" t="inlineStr">
         <is>
           <t>Bryan Solutions Inc.</t>
         </is>
       </c>
-      <c r="B10" s="19" t="inlineStr">
+      <c r="B10" s="20" t="inlineStr">
         <is>
           <t>hd4hdqq@yopmail.com</t>
         </is>
       </c>
-      <c r="C10" s="14" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="D10" s="14" t="inlineStr">
-        <is>
-          <t>8836601063</t>
-        </is>
-      </c>
-      <c r="E10" s="14" t="inlineStr">
-        <is>
-          <t>g8qlqmm20@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="H10" s="19" t="inlineStr">
+      <c r="C10" s="15" t="inlineStr">
+        <is>
+          <t>Quincy</t>
+        </is>
+      </c>
+      <c r="D10" s="15" t="inlineStr">
+        <is>
+          <t>7561300267</t>
+        </is>
+      </c>
+      <c r="E10" s="15" t="inlineStr">
+        <is>
+          <t>wg78v2w20@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="H10" s="20" t="inlineStr">
         <is>
           <t>Olivia Solutions Private Limited</t>
         </is>
       </c>
-      <c r="I10" s="19" t="inlineStr">
+      <c r="I10" s="20" t="inlineStr">
         <is>
           <t>v6xvrsx@mailcatch.com</t>
         </is>
       </c>
-      <c r="J10" s="20" t="inlineStr">
+      <c r="J10" s="21" t="inlineStr">
         <is>
           <t>Nathan</t>
         </is>
       </c>
-      <c r="K10" s="20" t="inlineStr">
+      <c r="K10" s="21" t="inlineStr">
         <is>
           <t>personalpe0cgo4@mailcatch.com</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="27.75" customHeight="1" s="15">
-      <c r="A11" s="27" t="inlineStr">
-        <is>
-          <t>Milo</t>
-        </is>
-      </c>
-      <c r="B11" s="27" t="inlineStr">
-        <is>
-          <t>personalngjzvuud@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="C11" s="27" t="inlineStr">
-        <is>
-          <t>93258</t>
-        </is>
-      </c>
-      <c r="D11" s="27" t="inlineStr">
-        <is>
-          <t>9476718698</t>
-        </is>
-      </c>
-      <c r="E11" s="27" t="inlineStr">
-        <is>
-          <t>empngjzvuud@mailcatch.com</t>
-        </is>
-      </c>
-      <c r="J11" s="26" t="n"/>
-      <c r="K11" s="26" t="n"/>
-    </row>
-    <row r="13" ht="27.75" customHeight="1" s="15">
-      <c r="A13" s="16" t="inlineStr">
+    <row r="11" ht="27.75" customHeight="1" s="16">
+      <c r="A11" s="28" t="inlineStr">
+        <is>
+          <t>Olivia</t>
+        </is>
+      </c>
+      <c r="B11" s="28" t="inlineStr">
+        <is>
+          <t>personala0ieia1c@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="C11" s="28" t="inlineStr">
+        <is>
+          <t>93646</t>
+        </is>
+      </c>
+      <c r="D11" s="28" t="inlineStr">
+        <is>
+          <t>8100176533</t>
+        </is>
+      </c>
+      <c r="E11" s="28" t="inlineStr">
+        <is>
+          <t>empa0ieia1c@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="J11" s="27" t="n"/>
+      <c r="K11" s="27" t="n"/>
+    </row>
+    <row r="13" ht="27.75" customHeight="1" s="16">
+      <c r="A13" s="17" t="inlineStr">
         <is>
           <t>Anand(Company name</t>
         </is>
       </c>
-      <c r="B13" s="16" t="inlineStr">
+      <c r="B13" s="17" t="inlineStr">
         <is>
           <t>Email ID</t>
         </is>
       </c>
-      <c r="C13" s="16" t="inlineStr">
+      <c r="C13" s="17" t="inlineStr">
         <is>
           <t>Fullname</t>
         </is>
       </c>
-      <c r="D13" s="16" t="inlineStr">
+      <c r="D13" s="17" t="inlineStr">
         <is>
           <t>Phone</t>
         </is>
       </c>
-      <c r="E13" s="16" t="inlineStr">
+      <c r="E13" s="17" t="inlineStr">
         <is>
           <t>Emp email id</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="27.75" customHeight="1" s="15">
-      <c r="A14" s="14" t="inlineStr">
+    <row r="14" ht="27.75" customHeight="1" s="16">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>Mahindra</t>
         </is>
       </c>
-      <c r="B14" s="14" t="inlineStr">
+      <c r="B14" s="15" t="inlineStr">
         <is>
           <t>mahindra@yopmail.com</t>
         </is>
       </c>
-      <c r="C14" s="14" t="inlineStr">
+      <c r="C14" s="15" t="inlineStr">
         <is>
           <t>Anand Mahindra</t>
         </is>
       </c>
-      <c r="D14" s="14" t="n">
+      <c r="D14" s="15" t="n">
         <v>8732732766</v>
       </c>
-      <c r="E14" s="14" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>anandpk@yopmail.com</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="27.75" customHeight="1" s="15">
-      <c r="B15" s="14" t="inlineStr">
+    <row r="15" ht="27.75" customHeight="1" s="16">
+      <c r="B15" s="15" t="inlineStr">
         <is>
           <t>j@yopmail.com</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="27.75" customHeight="1" s="15">
-      <c r="A16" s="14" t="inlineStr">
-        <is>
-          <t>software Quincy</t>
-        </is>
-      </c>
-      <c r="B16" s="14" t="inlineStr">
+    <row r="16" ht="27.75" customHeight="1" s="16">
+      <c r="A16" s="15" t="inlineStr">
+        <is>
+          <t>software Zachary</t>
+        </is>
+      </c>
+      <c r="B16" s="15" t="inlineStr">
         <is>
           <t>kris@yopmail.com</t>
         </is>
       </c>
-      <c r="C16" s="14" t="inlineStr">
-        <is>
-          <t>MarketingQuincy</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="27.75" customHeight="1" s="15">
-      <c r="A20" s="24" t="inlineStr">
+      <c r="C16" s="15" t="inlineStr">
+        <is>
+          <t>MarketingZachary</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="28" customHeight="1" s="16">
+      <c r="A17" s="17" t="inlineStr">
+        <is>
+          <t>Emp Name Invite (Employees) 19. column company Name</t>
+        </is>
+      </c>
+      <c r="B17" s="17" t="inlineStr">
+        <is>
+          <t>Personal Email       19.SuperAdmin Name</t>
+        </is>
+      </c>
+      <c r="C17" s="17" t="inlineStr">
+        <is>
+          <t>Emp Invite email</t>
+        </is>
+      </c>
+      <c r="D17" s="17" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="E17" s="17" t="inlineStr">
+        <is>
+          <t>Email address</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="27.75" customHeight="1" s="16">
+      <c r="A18" s="29" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="B18" s="29" t="inlineStr">
+        <is>
+          <t>personaldkta1qcq@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="C18" s="29" t="inlineStr">
+        <is>
+          <t>dkta1qcq@mailcatch.com</t>
+        </is>
+      </c>
+      <c r="D18" s="29" t="inlineStr">
+        <is>
+          <t>9641950522</t>
+        </is>
+      </c>
+      <c r="E18" s="29" t="inlineStr">
+        <is>
+          <t>r2p7cj8w@mailcatch.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="29" t="inlineStr">
+        <is>
+          <t>Nathan Solutions Enterprises</t>
+        </is>
+      </c>
+      <c r="B19" s="29" t="inlineStr">
+        <is>
+          <t>Jack</t>
+        </is>
+      </c>
+      <c r="D19" s="29" t="inlineStr">
+        <is>
+          <t>7986746632</t>
+        </is>
+      </c>
+      <c r="E19" s="29" t="inlineStr">
+        <is>
+          <t>jsoizfma@mailcatch.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="27.75" customHeight="1" s="16">
+      <c r="A20" s="25" t="inlineStr">
         <is>
           <t>Certification name</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="27.75" customHeight="1" s="15">
-      <c r="A21" s="19" t="inlineStr">
-        <is>
-          <t>CertificateseeMB</t>
+    <row r="21" ht="27.75" customHeight="1" s="16">
+      <c r="A21" s="20" t="inlineStr">
+        <is>
+          <t>CertificateJVQLW</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="bahly215@mailcatch.com" r:id="rId1"/>
+    <hyperlink ref="A2" display="glolzpaz@mailcatch.com" r:id="rId1"/>
     <hyperlink ref="K2" display="employeeone@yopmail.com" r:id="rId2"/>
     <hyperlink ref="K3" display="employeetwo@yopmail.com" r:id="rId3"/>
     <hyperlink ref="K4" display="employeethree@yopmail.com" r:id="rId4"/>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -475,7 +475,7 @@
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="22.55078125" defaultRowHeight="27.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="22.55078125" defaultRowHeight="27.75" zeroHeight="0" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col width="28" customWidth="1" style="15" min="1" max="2"/>
     <col width="32.55" customWidth="1" style="15" min="3" max="3"/>
@@ -537,22 +537,22 @@
     <row r="2" ht="27.75" customHeight="1" s="16">
       <c r="A2" s="20" t="inlineStr">
         <is>
-          <t>kxo1fatq@mailcatch.com</t>
+          <t>aknmj8i1@mailcatch.com</t>
         </is>
       </c>
       <c r="B2" s="15" t="inlineStr">
         <is>
-          <t>Milo</t>
+          <t>Quinn</t>
         </is>
       </c>
       <c r="C2" s="15" t="inlineStr">
         <is>
-          <t>Xena Systems Inc.</t>
+          <t>Uma Innovations Private Limited</t>
         </is>
       </c>
       <c r="D2" s="15" t="inlineStr">
         <is>
-          <t>6696475147</t>
+          <t>9604240954</t>
         </is>
       </c>
       <c r="H2" s="20" t="inlineStr">
@@ -734,22 +734,22 @@
     <row r="6" ht="27.75" customHeight="1" s="16">
       <c r="A6" s="21" t="inlineStr">
         <is>
-          <t>Cora</t>
+          <t>Peyton</t>
         </is>
       </c>
       <c r="B6" s="21" t="inlineStr">
         <is>
-          <t>rujq518m@mailcatch.com</t>
+          <t>hh6tnk89@mailcatch.com</t>
         </is>
       </c>
       <c r="C6" s="15" t="inlineStr">
         <is>
-          <t>Liam</t>
+          <t>Sebastian</t>
         </is>
       </c>
       <c r="D6" s="15" t="inlineStr">
         <is>
-          <t>qq7r2lci@mailcatch.com</t>
+          <t>hm1k6zw1@mailcatch.com</t>
         </is>
       </c>
       <c r="E6" s="21" t="n"/>
@@ -787,27 +787,27 @@
     <row r="8" ht="27.75" customHeight="1" s="16">
       <c r="A8" s="15" t="inlineStr">
         <is>
-          <t>Emily</t>
+          <t>Quentin</t>
         </is>
       </c>
       <c r="B8" s="15" t="inlineStr">
         <is>
-          <t>personalqfy5lfvz@mailcatch.com</t>
+          <t>personalxija5iyj@mailcatch.com</t>
         </is>
       </c>
       <c r="C8" s="15" t="inlineStr">
         <is>
-          <t>99688</t>
+          <t>90134</t>
         </is>
       </c>
       <c r="D8" s="15" t="inlineStr">
         <is>
-          <t>6684701842</t>
+          <t>7378556557</t>
         </is>
       </c>
       <c r="E8" s="15" t="inlineStr">
         <is>
-          <t>empqfy5lfvz@mailcatch.com</t>
+          <t>empxija5iyj@mailcatch.com</t>
         </is>
       </c>
       <c r="H8" s="25" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="C10" s="15" t="inlineStr">
         <is>
-          <t>Riley</t>
+          <t>Yasmine</t>
         </is>
       </c>
       <c r="D10" s="15" t="inlineStr">
         <is>
-          <t>9538233230</t>
+          <t>7063016002</t>
         </is>
       </c>
       <c r="E10" s="15" t="inlineStr">
         <is>
-          <t>v1dqj7320@mailcatch.com</t>
+          <t>p3fws1q20@mailcatch.com</t>
         </is>
       </c>
       <c r="H10" s="20" t="inlineStr">
@@ -917,27 +917,27 @@
     <row r="11" ht="27.75" customHeight="1" s="16">
       <c r="A11" s="28" t="inlineStr">
         <is>
-          <t>Daniel</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="B11" s="28" t="inlineStr">
         <is>
-          <t>personalu4tm2ci9@mailcatch.com</t>
+          <t>personalvu0ag6h5@mailcatch.com</t>
         </is>
       </c>
       <c r="C11" s="28" t="inlineStr">
         <is>
-          <t>99424</t>
+          <t>96147</t>
         </is>
       </c>
       <c r="D11" s="28" t="inlineStr">
         <is>
-          <t>8755327548</t>
+          <t>7831402463</t>
         </is>
       </c>
       <c r="E11" s="28" t="inlineStr">
         <is>
-          <t>empu4tm2ci9@mailcatch.com</t>
+          <t>empvu0ag6h5@mailcatch.com</t>
         </is>
       </c>
       <c r="J11" s="27" t="n"/>
@@ -1005,7 +1005,7 @@
     <row r="16" ht="27.75" customHeight="1" s="16">
       <c r="A16" s="15" t="inlineStr">
         <is>
-          <t>software Alice</t>
+          <t>software Owen</t>
         </is>
       </c>
       <c r="B16" s="15" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C16" s="15" t="inlineStr">
         <is>
-          <t>MarketingAlice</t>
+          <t>MarketingOwen</t>
         </is>
       </c>
     </row>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -1245,10 +1245,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="22.5545454545455" defaultRowHeight="14.5"/>
@@ -1805,7 +1805,14 @@
     <row r="21" ht="27.75" customHeight="1">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>CertificatevakFz</t>
+          <t>CertificatehfNEa</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>zlnh927@yopmail.com</t>
         </is>
       </c>
     </row>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -1005,7 +1005,7 @@
     <row r="16" ht="27.75" customHeight="1" s="16">
       <c r="A16" s="15" t="inlineStr">
         <is>
-          <t>software Zachary</t>
+          <t>Outsidesales Gavin</t>
         </is>
       </c>
       <c r="B16" s="15" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C16" s="15" t="inlineStr">
         <is>
-          <t>MarketingZachary</t>
+          <t>internationalMarketingGavin</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
     <row r="21" ht="27.75" customHeight="1" s="16">
       <c r="A21" s="20" t="inlineStr">
         <is>
-          <t>CertificateJVQLW</t>
+          <t>CertificateiSzWZ</t>
         </is>
       </c>
     </row>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -46,16 +46,16 @@
     <t xml:space="preserve">Emp Email</t>
   </si>
   <si>
-    <t xml:space="preserve">cgrg6v8c@mailcatch.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Violet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quinn Services Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9707558916</t>
+    <t xml:space="preserve">d7puiz74@mailcatch.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachel Creators LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6475470243</t>
   </si>
   <si>
     <t xml:space="preserve">TestaaoIV Innovations Inc.</t>
@@ -153,16 +153,16 @@
     <t xml:space="preserve">employeefour@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Yasmine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mp4ahrc8@mailcatch.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j1x65ren@mailcatch.com</t>
+    <t xml:space="preserve">Riley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n6act4u3@mailcatch.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ap9t5ao0@mailcatch.com</t>
   </si>
   <si>
     <t xml:space="preserve">Added Employees from inside the company - Emp name</t>
@@ -177,19 +177,19 @@
     <t xml:space="preserve">Email address</t>
   </si>
   <si>
-    <t xml:space="preserve">Alice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personalmgskiz6a@mailcatch.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9329395710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empmgskiz6a@mailcatch.com</t>
+    <t xml:space="preserve">Henry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personalno1tqfwf@mailcatch.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8699348488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empno1tqfwf@mailcatch.com</t>
   </si>
   <si>
     <t xml:space="preserve">test_ListedCompanyAddEmp.py</t>
@@ -208,13 +208,13 @@
     <t xml:space="preserve">hd4hdqq@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Derek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6227792926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jebxum220@mailcatch.com</t>
+    <t xml:space="preserve">Rachel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8622494945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r212g1h20@mailcatch.com</t>
   </si>
   <si>
     <t xml:space="preserve">Olivia Solutions Private Limited</t>
@@ -229,19 +229,19 @@
     <t xml:space="preserve">personalpe0cgo4@mailcatch.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Isla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personalwr6kl27t@mailcatch.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8151131767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empwr6kl27t@mailcatch.com</t>
+    <t xml:space="preserve">Penelope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personalqb7a9rm8@mailcatch.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6905945474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empqb7a9rm8@mailcatch.com</t>
   </si>
   <si>
     <t xml:space="preserve">Anand(Company name</t>
@@ -265,13 +265,13 @@
     <t xml:space="preserve">j@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">software Grace</t>
+    <t xml:space="preserve">Outsidesales Chloe</t>
   </si>
   <si>
     <t xml:space="preserve">kris@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">MarketingGrace</t>
+    <t xml:space="preserve">internationalMarketingChloe</t>
   </si>
   <si>
     <t xml:space="preserve">Emp Name Invite (Employees) 19. column company Name</t>
@@ -310,10 +310,10 @@
     <t xml:space="preserve">Certification name</t>
   </si>
   <si>
-    <t xml:space="preserve">CertificateBUTvT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zlnh97@yopmail.com</t>
+    <t xml:space="preserve">CertificateumPCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zlnh927@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -323,7 +323,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +383,12 @@
       <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -451,7 +457,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -510,6 +516,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -764,7 +774,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.55078125" defaultRowHeight="27.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1150,7 +1160,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
         <v>90</v>
       </c>
@@ -1174,19 +1184,19 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="cgrg6v8c@mailcatch.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="d7puiz74@mailcatch.com"/>
     <hyperlink ref="K2" r:id="rId2" display="employeeone@yopmail.com"/>
     <hyperlink ref="K3" r:id="rId3" display="employeetwo@yopmail.com"/>
     <hyperlink ref="K4" r:id="rId4" display="employeethree@yopmail.com"/>
     <hyperlink ref="K5" r:id="rId5" display="employeefour@yopmail.com"/>
-    <hyperlink ref="A25" r:id="rId6" display="zlnh97@yopmail.com"/>
+    <hyperlink ref="A25" r:id="rId6" display="zlnh927@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -46,16 +46,16 @@
     <t xml:space="preserve">Emp Email</t>
   </si>
   <si>
-    <t xml:space="preserve">cgrg6v8c@mailcatch.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Violet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quinn Services Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9707558916</t>
+    <t xml:space="preserve">or28y0sf@mailcatch.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zane Creators Enterprises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7845723438</t>
   </si>
   <si>
     <t xml:space="preserve">TestaaoIV Innovations Inc.</t>
@@ -153,16 +153,16 @@
     <t xml:space="preserve">employeefour@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Yasmine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mp4ahrc8@mailcatch.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j1x65ren@mailcatch.com</t>
+    <t xml:space="preserve">Eva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fmk16344@mailcatch.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y8c30dnc@mailcatch.com</t>
   </si>
   <si>
     <t xml:space="preserve">Added Employees from inside the company - Emp name</t>
@@ -177,19 +177,19 @@
     <t xml:space="preserve">Email address</t>
   </si>
   <si>
-    <t xml:space="preserve">Alice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personalmgskiz6a@mailcatch.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">93422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9329395710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empmgskiz6a@mailcatch.com</t>
+    <t xml:space="preserve">Kylie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personaljmnzp2df@mailcatch.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8428774126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empjmnzp2df@mailcatch.com</t>
   </si>
   <si>
     <t xml:space="preserve">test_ListedCompanyAddEmp.py</t>
@@ -208,13 +208,13 @@
     <t xml:space="preserve">hd4hdqq@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Derek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6227792926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jebxum220@mailcatch.com</t>
+    <t xml:space="preserve">Fiona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8356881674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hw3ae7z20@mailcatch.com</t>
   </si>
   <si>
     <t xml:space="preserve">Olivia Solutions Private Limited</t>
@@ -229,19 +229,19 @@
     <t xml:space="preserve">personalpe0cgo4@mailcatch.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Isla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">personalwr6kl27t@mailcatch.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8151131767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empwr6kl27t@mailcatch.com</t>
+    <t xml:space="preserve">Abigail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">personalg99pc6jc@mailcatch.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8501183698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empg99pc6jc@mailcatch.com</t>
   </si>
   <si>
     <t xml:space="preserve">Anand(Company name</t>
@@ -265,13 +265,13 @@
     <t xml:space="preserve">j@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">software Grace</t>
+    <t xml:space="preserve">Outsidesales Owen</t>
   </si>
   <si>
     <t xml:space="preserve">kris@yopmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">MarketingGrace</t>
+    <t xml:space="preserve">internationalMarketingOwen</t>
   </si>
   <si>
     <t xml:space="preserve">Emp Name Invite (Employees) 19. column company Name</t>
@@ -310,10 +310,10 @@
     <t xml:space="preserve">Certification name</t>
   </si>
   <si>
-    <t xml:space="preserve">CertificateBUTvT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zlnh97@yopmail.com</t>
+    <t xml:space="preserve">CertificateeQBKf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zlnh927@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -323,7 +323,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +383,12 @@
       <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -451,7 +457,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -510,6 +516,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -764,7 +774,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.55078125" defaultRowHeight="27.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1150,7 +1160,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
         <v>90</v>
       </c>
@@ -1174,19 +1184,19 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="cgrg6v8c@mailcatch.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="or28y0sf@mailcatch.com"/>
     <hyperlink ref="K2" r:id="rId2" display="employeeone@yopmail.com"/>
     <hyperlink ref="K3" r:id="rId3" display="employeetwo@yopmail.com"/>
     <hyperlink ref="K4" r:id="rId4" display="employeethree@yopmail.com"/>
     <hyperlink ref="K5" r:id="rId5" display="employeefour@yopmail.com"/>
-    <hyperlink ref="A25" r:id="rId6" display="zlnh97@yopmail.com"/>
+    <hyperlink ref="A25" r:id="rId6" display="zlnh927@yopmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
